--- a/integracao.xlsx
+++ b/integracao.xlsx
@@ -2,54 +2,48 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luiz\Desktop\Trabalho\Repositorios_Robos\Robos_Vaapt\Integracao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miguel\Downloads\edit\Ausencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F1F7B2-F12B-4537-9E43-E72A276E9020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBDEEEB-B2C5-462A-884A-94534BF177B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{67D31B47-65AC-49B3-BFD5-6527284A1247}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,12 +54,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -74,15 +83,15 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -95,7 +104,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -105,44 +114,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -169,32 +178,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -221,24 +212,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -250,231 +223,258 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5112B0AA-6CAA-474C-A4C0-CD563E6C1BA9}">
-  <dimension ref="A1:A11467"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B5133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4304337</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4304495</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4304641</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4304697</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4304629</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4304739</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4304788</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4304861</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4305012</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4305134</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4305144</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4305205</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4305340</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4305562</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4305658</v>
       </c>
@@ -26064,8630 +26064,7 @@
         <v>5191716</v>
       </c>
     </row>
-    <row r="8594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8594" s="1"/>
-    </row>
-    <row r="8595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8595" s="1"/>
-    </row>
-    <row r="8596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8596" s="1"/>
-    </row>
-    <row r="8597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8597" s="1"/>
-    </row>
-    <row r="8598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8598" s="1"/>
-    </row>
-    <row r="8599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8599" s="1"/>
-    </row>
-    <row r="8600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8600" s="1"/>
-    </row>
-    <row r="8601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8601" s="1"/>
-    </row>
-    <row r="8602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8602" s="1"/>
-    </row>
-    <row r="8603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8603" s="1"/>
-    </row>
-    <row r="8604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8604" s="1"/>
-    </row>
-    <row r="8605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8605" s="1"/>
-    </row>
-    <row r="8606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8606" s="1"/>
-    </row>
-    <row r="8607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8607" s="1"/>
-    </row>
-    <row r="8608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8608" s="1"/>
-    </row>
-    <row r="8609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8609" s="1"/>
-    </row>
-    <row r="8610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8610" s="1"/>
-    </row>
-    <row r="8611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8611" s="1"/>
-    </row>
-    <row r="8612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8612" s="1"/>
-    </row>
-    <row r="8613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8613" s="1"/>
-    </row>
-    <row r="8614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8614" s="1"/>
-    </row>
-    <row r="8615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8615" s="1"/>
-    </row>
-    <row r="8616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8616" s="1"/>
-    </row>
-    <row r="8617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8617" s="1"/>
-    </row>
-    <row r="8618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8618" s="1"/>
-    </row>
-    <row r="8619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8619" s="1"/>
-    </row>
-    <row r="8620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8620" s="1"/>
-    </row>
-    <row r="8621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8621" s="1"/>
-    </row>
-    <row r="8622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8622" s="1"/>
-    </row>
-    <row r="8623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8623" s="1"/>
-    </row>
-    <row r="8624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8624" s="1"/>
-    </row>
-    <row r="8625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8625" s="1"/>
-    </row>
-    <row r="8626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8626" s="1"/>
-    </row>
-    <row r="8627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8627" s="1"/>
-    </row>
-    <row r="8628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8628" s="1"/>
-    </row>
-    <row r="8629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8629" s="1"/>
-    </row>
-    <row r="8630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8630" s="1"/>
-    </row>
-    <row r="8631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8631" s="1"/>
-    </row>
-    <row r="8632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8632" s="1"/>
-    </row>
-    <row r="8633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8633" s="1"/>
-    </row>
-    <row r="8634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8634" s="1"/>
-    </row>
-    <row r="8635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8635" s="1"/>
-    </row>
-    <row r="8636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8636" s="1"/>
-    </row>
-    <row r="8637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8637" s="1"/>
-    </row>
-    <row r="8638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8638" s="1"/>
-    </row>
-    <row r="8639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8639" s="1"/>
-    </row>
-    <row r="8640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8640" s="1"/>
-    </row>
-    <row r="8641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8641" s="1"/>
-    </row>
-    <row r="8642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8642" s="1"/>
-    </row>
-    <row r="8643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8643" s="1"/>
-    </row>
-    <row r="8644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8644" s="1"/>
-    </row>
-    <row r="8645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8645" s="1"/>
-    </row>
-    <row r="8646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8646" s="1"/>
-    </row>
-    <row r="8647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8647" s="1"/>
-    </row>
-    <row r="8648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8648" s="1"/>
-    </row>
-    <row r="8649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8649" s="1"/>
-    </row>
-    <row r="8650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8650" s="1"/>
-    </row>
-    <row r="8651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8651" s="1"/>
-    </row>
-    <row r="8652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8652" s="1"/>
-    </row>
-    <row r="8653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8653" s="1"/>
-    </row>
-    <row r="8654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8654" s="1"/>
-    </row>
-    <row r="8655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8655" s="1"/>
-    </row>
-    <row r="8656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8656" s="1"/>
-    </row>
-    <row r="8657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8657" s="1"/>
-    </row>
-    <row r="8658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8658" s="1"/>
-    </row>
-    <row r="8659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8659" s="1"/>
-    </row>
-    <row r="8660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8660" s="1"/>
-    </row>
-    <row r="8661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8661" s="1"/>
-    </row>
-    <row r="8662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8662" s="1"/>
-    </row>
-    <row r="8663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8663" s="1"/>
-    </row>
-    <row r="8664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8664" s="1"/>
-    </row>
-    <row r="8665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8665" s="1"/>
-    </row>
-    <row r="8666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8666" s="1"/>
-    </row>
-    <row r="8667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8667" s="1"/>
-    </row>
-    <row r="8668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8668" s="1"/>
-    </row>
-    <row r="8669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8669" s="1"/>
-    </row>
-    <row r="8670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8670" s="1"/>
-    </row>
-    <row r="8671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8671" s="1"/>
-    </row>
-    <row r="8672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8672" s="1"/>
-    </row>
-    <row r="8673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8673" s="1"/>
-    </row>
-    <row r="8674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8674" s="1"/>
-    </row>
-    <row r="8675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8675" s="1"/>
-    </row>
-    <row r="8676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8676" s="1"/>
-    </row>
-    <row r="8677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8677" s="1"/>
-    </row>
-    <row r="8678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8678" s="1"/>
-    </row>
-    <row r="8679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8679" s="1"/>
-    </row>
-    <row r="8680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8680" s="1"/>
-    </row>
-    <row r="8681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8681" s="1"/>
-    </row>
-    <row r="8682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8682" s="1"/>
-    </row>
-    <row r="8683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8683" s="1"/>
-    </row>
-    <row r="8684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8684" s="1"/>
-    </row>
-    <row r="8685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8685" s="1"/>
-    </row>
-    <row r="8686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8686" s="1"/>
-    </row>
-    <row r="8687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8687" s="1"/>
-    </row>
-    <row r="8688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8688" s="1"/>
-    </row>
-    <row r="8689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8689" s="1"/>
-    </row>
-    <row r="8690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8690" s="1"/>
-    </row>
-    <row r="8691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8691" s="1"/>
-    </row>
-    <row r="8692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8692" s="1"/>
-    </row>
-    <row r="8693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8693" s="1"/>
-    </row>
-    <row r="8694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8694" s="1"/>
-    </row>
-    <row r="8695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8695" s="1"/>
-    </row>
-    <row r="8696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8696" s="1"/>
-    </row>
-    <row r="8697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8697" s="1"/>
-    </row>
-    <row r="8698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8698" s="1"/>
-    </row>
-    <row r="8699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8699" s="1"/>
-    </row>
-    <row r="8700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8700" s="1"/>
-    </row>
-    <row r="8701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8701" s="1"/>
-    </row>
-    <row r="8702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8702" s="1"/>
-    </row>
-    <row r="8703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8703" s="1"/>
-    </row>
-    <row r="8704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8704" s="1"/>
-    </row>
-    <row r="8705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8705" s="1"/>
-    </row>
-    <row r="8706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8706" s="1"/>
-    </row>
-    <row r="8707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8707" s="1"/>
-    </row>
-    <row r="8708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8708" s="1"/>
-    </row>
-    <row r="8709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8709" s="1"/>
-    </row>
-    <row r="8710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8710" s="1"/>
-    </row>
-    <row r="8711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8711" s="1"/>
-    </row>
-    <row r="8712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8712" s="1"/>
-    </row>
-    <row r="8713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8713" s="1"/>
-    </row>
-    <row r="8714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8714" s="1"/>
-    </row>
-    <row r="8715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8715" s="1"/>
-    </row>
-    <row r="8716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8716" s="1"/>
-    </row>
-    <row r="8717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8717" s="1"/>
-    </row>
-    <row r="8718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8718" s="1"/>
-    </row>
-    <row r="8719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8719" s="1"/>
-    </row>
-    <row r="8720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8720" s="1"/>
-    </row>
-    <row r="8721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8721" s="1"/>
-    </row>
-    <row r="8722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8722" s="1"/>
-    </row>
-    <row r="8723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8723" s="1"/>
-    </row>
-    <row r="8724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8724" s="1"/>
-    </row>
-    <row r="8725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8725" s="1"/>
-    </row>
-    <row r="8726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8726" s="1"/>
-    </row>
-    <row r="8727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8727" s="1"/>
-    </row>
-    <row r="8728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8728" s="1"/>
-    </row>
-    <row r="8729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8729" s="1"/>
-    </row>
-    <row r="8730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8730" s="1"/>
-    </row>
-    <row r="8731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8731" s="1"/>
-    </row>
-    <row r="8732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8732" s="1"/>
-    </row>
-    <row r="8733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8733" s="1"/>
-    </row>
-    <row r="8734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8734" s="1"/>
-    </row>
-    <row r="8735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8735" s="1"/>
-    </row>
-    <row r="8736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8736" s="1"/>
-    </row>
-    <row r="8737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8737" s="1"/>
-    </row>
-    <row r="8738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8738" s="1"/>
-    </row>
-    <row r="8739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8739" s="1"/>
-    </row>
-    <row r="8740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8740" s="1"/>
-    </row>
-    <row r="8741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8741" s="1"/>
-    </row>
-    <row r="8742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8742" s="1"/>
-    </row>
-    <row r="8743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8743" s="1"/>
-    </row>
-    <row r="8744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8744" s="1"/>
-    </row>
-    <row r="8745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8745" s="1"/>
-    </row>
-    <row r="8746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8746" s="1"/>
-    </row>
-    <row r="8747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8747" s="1"/>
-    </row>
-    <row r="8748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8748" s="1"/>
-    </row>
-    <row r="8749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8749" s="1"/>
-    </row>
-    <row r="8750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8750" s="1"/>
-    </row>
-    <row r="8751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8751" s="1"/>
-    </row>
-    <row r="8752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8752" s="1"/>
-    </row>
-    <row r="8753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8753" s="1"/>
-    </row>
-    <row r="8754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8754" s="1"/>
-    </row>
-    <row r="8755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8755" s="1"/>
-    </row>
-    <row r="8756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8756" s="1"/>
-    </row>
-    <row r="8757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8757" s="1"/>
-    </row>
-    <row r="8758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8758" s="1"/>
-    </row>
-    <row r="8759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8759" s="1"/>
-    </row>
-    <row r="8760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8760" s="1"/>
-    </row>
-    <row r="8761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8761" s="1"/>
-    </row>
-    <row r="8762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8762" s="1"/>
-    </row>
-    <row r="8763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8763" s="1"/>
-    </row>
-    <row r="8764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8764" s="1"/>
-    </row>
-    <row r="8765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8765" s="1"/>
-    </row>
-    <row r="8766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8766" s="1"/>
-    </row>
-    <row r="8767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8767" s="1"/>
-    </row>
-    <row r="8768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8768" s="1"/>
-    </row>
-    <row r="8769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8769" s="1"/>
-    </row>
-    <row r="8770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8770" s="1"/>
-    </row>
-    <row r="8771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8771" s="1"/>
-    </row>
-    <row r="8772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8772" s="1"/>
-    </row>
-    <row r="8773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8773" s="1"/>
-    </row>
-    <row r="8774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8774" s="1"/>
-    </row>
-    <row r="8775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8775" s="1"/>
-    </row>
-    <row r="8776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8776" s="1"/>
-    </row>
-    <row r="8777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8777" s="1"/>
-    </row>
-    <row r="8778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8778" s="1"/>
-    </row>
-    <row r="8779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8779" s="1"/>
-    </row>
-    <row r="8780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8780" s="1"/>
-    </row>
-    <row r="8781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8781" s="1"/>
-    </row>
-    <row r="8782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8782" s="1"/>
-    </row>
-    <row r="8783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8783" s="1"/>
-    </row>
-    <row r="8784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8784" s="1"/>
-    </row>
-    <row r="8785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8785" s="1"/>
-    </row>
-    <row r="8786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8786" s="1"/>
-    </row>
-    <row r="8787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8787" s="1"/>
-    </row>
-    <row r="8788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8788" s="1"/>
-    </row>
-    <row r="8789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8789" s="1"/>
-    </row>
-    <row r="8790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8790" s="1"/>
-    </row>
-    <row r="8791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8791" s="1"/>
-    </row>
-    <row r="8792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8792" s="1"/>
-    </row>
-    <row r="8793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8793" s="1"/>
-    </row>
-    <row r="8794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8794" s="1"/>
-    </row>
-    <row r="8795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8795" s="1"/>
-    </row>
-    <row r="8796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8796" s="1"/>
-    </row>
-    <row r="8797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8797" s="1"/>
-    </row>
-    <row r="8798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8798" s="1"/>
-    </row>
-    <row r="8799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8799" s="1"/>
-    </row>
-    <row r="8800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8800" s="1"/>
-    </row>
-    <row r="8801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8801" s="1"/>
-    </row>
-    <row r="8802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8802" s="1"/>
-    </row>
-    <row r="8803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8803" s="1"/>
-    </row>
-    <row r="8804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8804" s="1"/>
-    </row>
-    <row r="8805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8805" s="1"/>
-    </row>
-    <row r="8806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8806" s="1"/>
-    </row>
-    <row r="8807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8807" s="1"/>
-    </row>
-    <row r="8808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8808" s="1"/>
-    </row>
-    <row r="8809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8809" s="1"/>
-    </row>
-    <row r="8810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8810" s="1"/>
-    </row>
-    <row r="8811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8811" s="1"/>
-    </row>
-    <row r="8812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8812" s="1"/>
-    </row>
-    <row r="8813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8813" s="1"/>
-    </row>
-    <row r="8814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8814" s="1"/>
-    </row>
-    <row r="8815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8815" s="1"/>
-    </row>
-    <row r="8816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8816" s="1"/>
-    </row>
-    <row r="8817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8817" s="1"/>
-    </row>
-    <row r="8818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8818" s="1"/>
-    </row>
-    <row r="8819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8819" s="1"/>
-    </row>
-    <row r="8820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8820" s="1"/>
-    </row>
-    <row r="8821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8821" s="1"/>
-    </row>
-    <row r="8822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8822" s="1"/>
-    </row>
-    <row r="8823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8823" s="1"/>
-    </row>
-    <row r="8824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8824" s="1"/>
-    </row>
-    <row r="8825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8825" s="1"/>
-    </row>
-    <row r="8826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8826" s="1"/>
-    </row>
-    <row r="8827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8827" s="1"/>
-    </row>
-    <row r="8828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8828" s="1"/>
-    </row>
-    <row r="8829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8829" s="1"/>
-    </row>
-    <row r="8830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8830" s="1"/>
-    </row>
-    <row r="8831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8831" s="1"/>
-    </row>
-    <row r="8832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8832" s="1"/>
-    </row>
-    <row r="8833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8833" s="1"/>
-    </row>
-    <row r="8834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8834" s="1"/>
-    </row>
-    <row r="8835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8835" s="1"/>
-    </row>
-    <row r="8836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8836" s="1"/>
-    </row>
-    <row r="8837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8837" s="1"/>
-    </row>
-    <row r="8838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8838" s="1"/>
-    </row>
-    <row r="8839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8839" s="1"/>
-    </row>
-    <row r="8840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8840" s="1"/>
-    </row>
-    <row r="8841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8841" s="1"/>
-    </row>
-    <row r="8842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8842" s="1"/>
-    </row>
-    <row r="8843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8843" s="1"/>
-    </row>
-    <row r="8844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8844" s="1"/>
-    </row>
-    <row r="8845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8845" s="1"/>
-    </row>
-    <row r="8846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8846" s="1"/>
-    </row>
-    <row r="8847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8847" s="1"/>
-    </row>
-    <row r="8848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8848" s="1"/>
-    </row>
-    <row r="8849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8849" s="1"/>
-    </row>
-    <row r="8850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8850" s="1"/>
-    </row>
-    <row r="8851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8851" s="1"/>
-    </row>
-    <row r="8852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8852" s="1"/>
-    </row>
-    <row r="8853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8853" s="1"/>
-    </row>
-    <row r="8854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8854" s="1"/>
-    </row>
-    <row r="8855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8855" s="1"/>
-    </row>
-    <row r="8856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8856" s="1"/>
-    </row>
-    <row r="8857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8857" s="1"/>
-    </row>
-    <row r="8858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8858" s="1"/>
-    </row>
-    <row r="8859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8859" s="1"/>
-    </row>
-    <row r="8860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8860" s="1"/>
-    </row>
-    <row r="8861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8861" s="1"/>
-    </row>
-    <row r="8862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8862" s="1"/>
-    </row>
-    <row r="8863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8863" s="1"/>
-    </row>
-    <row r="8864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8864" s="1"/>
-    </row>
-    <row r="8865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8865" s="1"/>
-    </row>
-    <row r="8866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8866" s="1"/>
-    </row>
-    <row r="8867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8867" s="1"/>
-    </row>
-    <row r="8868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8868" s="1"/>
-    </row>
-    <row r="8869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8869" s="1"/>
-    </row>
-    <row r="8870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8870" s="1"/>
-    </row>
-    <row r="8871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8871" s="1"/>
-    </row>
-    <row r="8872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8872" s="1"/>
-    </row>
-    <row r="8873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8873" s="1"/>
-    </row>
-    <row r="8874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8874" s="1"/>
-    </row>
-    <row r="8875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8875" s="1"/>
-    </row>
-    <row r="8876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8876" s="1"/>
-    </row>
-    <row r="8877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8877" s="1"/>
-    </row>
-    <row r="8878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8878" s="1"/>
-    </row>
-    <row r="8879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8879" s="1"/>
-    </row>
-    <row r="8880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8880" s="1"/>
-    </row>
-    <row r="8881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8881" s="1"/>
-    </row>
-    <row r="8882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8882" s="1"/>
-    </row>
-    <row r="8883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8883" s="1"/>
-    </row>
-    <row r="8884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8884" s="1"/>
-    </row>
-    <row r="8885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8885" s="1"/>
-    </row>
-    <row r="8886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8886" s="1"/>
-    </row>
-    <row r="8887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8887" s="1"/>
-    </row>
-    <row r="8888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8888" s="1"/>
-    </row>
-    <row r="8889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8889" s="1"/>
-    </row>
-    <row r="8890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8890" s="1"/>
-    </row>
-    <row r="8891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8891" s="1"/>
-    </row>
-    <row r="8892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8892" s="1"/>
-    </row>
-    <row r="8893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8893" s="1"/>
-    </row>
-    <row r="8894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8894" s="1"/>
-    </row>
-    <row r="8895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8895" s="1"/>
-    </row>
-    <row r="8896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8896" s="1"/>
-    </row>
-    <row r="8897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8897" s="1"/>
-    </row>
-    <row r="8898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8898" s="1"/>
-    </row>
-    <row r="8899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8899" s="1"/>
-    </row>
-    <row r="8900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8900" s="1"/>
-    </row>
-    <row r="8901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8901" s="1"/>
-    </row>
-    <row r="8902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8902" s="1"/>
-    </row>
-    <row r="8903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8903" s="1"/>
-    </row>
-    <row r="8904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8904" s="1"/>
-    </row>
-    <row r="8905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8905" s="1"/>
-    </row>
-    <row r="8906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8906" s="1"/>
-    </row>
-    <row r="8907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8907" s="1"/>
-    </row>
-    <row r="8908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8908" s="1"/>
-    </row>
-    <row r="8909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8909" s="1"/>
-    </row>
-    <row r="8910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8910" s="1"/>
-    </row>
-    <row r="8911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8911" s="1"/>
-    </row>
-    <row r="8912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8912" s="1"/>
-    </row>
-    <row r="8913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8913" s="1"/>
-    </row>
-    <row r="8914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8914" s="1"/>
-    </row>
-    <row r="8915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8915" s="1"/>
-    </row>
-    <row r="8916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8916" s="1"/>
-    </row>
-    <row r="8917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8917" s="1"/>
-    </row>
-    <row r="8918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8918" s="1"/>
-    </row>
-    <row r="8919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8919" s="1"/>
-    </row>
-    <row r="8920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8920" s="1"/>
-    </row>
-    <row r="8921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8921" s="1"/>
-    </row>
-    <row r="8922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8922" s="1"/>
-    </row>
-    <row r="8923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8923" s="1"/>
-    </row>
-    <row r="8924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8924" s="1"/>
-    </row>
-    <row r="8925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8925" s="1"/>
-    </row>
-    <row r="8926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8926" s="1"/>
-    </row>
-    <row r="8927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8927" s="1"/>
-    </row>
-    <row r="8928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8928" s="1"/>
-    </row>
-    <row r="8929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8929" s="1"/>
-    </row>
-    <row r="8930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8930" s="1"/>
-    </row>
-    <row r="8931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8931" s="1"/>
-    </row>
-    <row r="8932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8932" s="1"/>
-    </row>
-    <row r="8933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8933" s="1"/>
-    </row>
-    <row r="8934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8934" s="1"/>
-    </row>
-    <row r="8935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8935" s="1"/>
-    </row>
-    <row r="8936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8936" s="1"/>
-    </row>
-    <row r="8937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8937" s="1"/>
-    </row>
-    <row r="8938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8938" s="1"/>
-    </row>
-    <row r="8939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8939" s="1"/>
-    </row>
-    <row r="8940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8940" s="1"/>
-    </row>
-    <row r="8941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8941" s="1"/>
-    </row>
-    <row r="8942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8942" s="1"/>
-    </row>
-    <row r="8943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8943" s="1"/>
-    </row>
-    <row r="8944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8944" s="1"/>
-    </row>
-    <row r="8945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8945" s="1"/>
-    </row>
-    <row r="8946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8946" s="1"/>
-    </row>
-    <row r="8947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8947" s="1"/>
-    </row>
-    <row r="8948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8948" s="1"/>
-    </row>
-    <row r="8949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8949" s="1"/>
-    </row>
-    <row r="8950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8950" s="1"/>
-    </row>
-    <row r="8951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8951" s="1"/>
-    </row>
-    <row r="8952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8952" s="1"/>
-    </row>
-    <row r="8953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8953" s="1"/>
-    </row>
-    <row r="8954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8954" s="1"/>
-    </row>
-    <row r="8955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8955" s="1"/>
-    </row>
-    <row r="8956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8956" s="1"/>
-    </row>
-    <row r="8957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8957" s="1"/>
-    </row>
-    <row r="8958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8958" s="1"/>
-    </row>
-    <row r="8959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8959" s="1"/>
-    </row>
-    <row r="8960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8960" s="1"/>
-    </row>
-    <row r="8961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8961" s="1"/>
-    </row>
-    <row r="8962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8962" s="1"/>
-    </row>
-    <row r="8963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8963" s="1"/>
-    </row>
-    <row r="8964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8964" s="1"/>
-    </row>
-    <row r="8965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8965" s="1"/>
-    </row>
-    <row r="8966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8966" s="1"/>
-    </row>
-    <row r="8967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8967" s="1"/>
-    </row>
-    <row r="8968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8968" s="1"/>
-    </row>
-    <row r="8969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8969" s="1"/>
-    </row>
-    <row r="8970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8970" s="1"/>
-    </row>
-    <row r="8971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8971" s="1"/>
-    </row>
-    <row r="8972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8972" s="1"/>
-    </row>
-    <row r="8973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8973" s="1"/>
-    </row>
-    <row r="8974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8974" s="1"/>
-    </row>
-    <row r="8975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8975" s="1"/>
-    </row>
-    <row r="8976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8976" s="1"/>
-    </row>
-    <row r="8977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8977" s="1"/>
-    </row>
-    <row r="8978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8978" s="1"/>
-    </row>
-    <row r="8979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8979" s="1"/>
-    </row>
-    <row r="8980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8980" s="1"/>
-    </row>
-    <row r="8981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8981" s="1"/>
-    </row>
-    <row r="8982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8982" s="1"/>
-    </row>
-    <row r="8983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8983" s="1"/>
-    </row>
-    <row r="8984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8984" s="1"/>
-    </row>
-    <row r="8985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8985" s="1"/>
-    </row>
-    <row r="8986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8986" s="1"/>
-    </row>
-    <row r="8987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8987" s="1"/>
-    </row>
-    <row r="8988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8988" s="1"/>
-    </row>
-    <row r="8989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8989" s="1"/>
-    </row>
-    <row r="8990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8990" s="1"/>
-    </row>
-    <row r="8991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8991" s="1"/>
-    </row>
-    <row r="8992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8992" s="1"/>
-    </row>
-    <row r="8993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8993" s="1"/>
-    </row>
-    <row r="8994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8994" s="1"/>
-    </row>
-    <row r="8995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8995" s="1"/>
-    </row>
-    <row r="8996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8996" s="1"/>
-    </row>
-    <row r="8997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8997" s="1"/>
-    </row>
-    <row r="8998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8998" s="1"/>
-    </row>
-    <row r="8999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8999" s="1"/>
-    </row>
-    <row r="9000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9000" s="1"/>
-    </row>
-    <row r="9001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9001" s="1"/>
-    </row>
-    <row r="9002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9002" s="1"/>
-    </row>
-    <row r="9003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9003" s="1"/>
-    </row>
-    <row r="9004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9004" s="1"/>
-    </row>
-    <row r="9005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9005" s="1"/>
-    </row>
-    <row r="9006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9006" s="1"/>
-    </row>
-    <row r="9007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9007" s="1"/>
-    </row>
-    <row r="9008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9008" s="1"/>
-    </row>
-    <row r="9009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9009" s="1"/>
-    </row>
-    <row r="9010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9010" s="1"/>
-    </row>
-    <row r="9011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9011" s="1"/>
-    </row>
-    <row r="9012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9012" s="1"/>
-    </row>
-    <row r="9013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9013" s="1"/>
-    </row>
-    <row r="9014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9014" s="1"/>
-    </row>
-    <row r="9015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9015" s="1"/>
-    </row>
-    <row r="9016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9016" s="1"/>
-    </row>
-    <row r="9017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9017" s="1"/>
-    </row>
-    <row r="9018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9018" s="1"/>
-    </row>
-    <row r="9019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9019" s="1"/>
-    </row>
-    <row r="9020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9020" s="1"/>
-    </row>
-    <row r="9021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9021" s="1"/>
-    </row>
-    <row r="9022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9022" s="1"/>
-    </row>
-    <row r="9023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9023" s="1"/>
-    </row>
-    <row r="9024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9024" s="1"/>
-    </row>
-    <row r="9025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9025" s="1"/>
-    </row>
-    <row r="9026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9026" s="1"/>
-    </row>
-    <row r="9027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9027" s="1"/>
-    </row>
-    <row r="9028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9028" s="1"/>
-    </row>
-    <row r="9029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9029" s="1"/>
-    </row>
-    <row r="9030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9030" s="1"/>
-    </row>
-    <row r="9031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9031" s="1"/>
-    </row>
-    <row r="9032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9032" s="1"/>
-    </row>
-    <row r="9033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9033" s="1"/>
-    </row>
-    <row r="9034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9034" s="1"/>
-    </row>
-    <row r="9035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9035" s="1"/>
-    </row>
-    <row r="9036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9036" s="1"/>
-    </row>
-    <row r="9037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9037" s="1"/>
-    </row>
-    <row r="9038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9038" s="1"/>
-    </row>
-    <row r="9039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9039" s="1"/>
-    </row>
-    <row r="9040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9040" s="1"/>
-    </row>
-    <row r="9041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9041" s="1"/>
-    </row>
-    <row r="9042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9042" s="1"/>
-    </row>
-    <row r="9043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9043" s="1"/>
-    </row>
-    <row r="9044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9044" s="1"/>
-    </row>
-    <row r="9045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9045" s="1"/>
-    </row>
-    <row r="9046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9046" s="1"/>
-    </row>
-    <row r="9047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9047" s="1"/>
-    </row>
-    <row r="9048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9048" s="1"/>
-    </row>
-    <row r="9049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9049" s="1"/>
-    </row>
-    <row r="9050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9050" s="1"/>
-    </row>
-    <row r="9051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9051" s="1"/>
-    </row>
-    <row r="9052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9052" s="1"/>
-    </row>
-    <row r="9053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9053" s="1"/>
-    </row>
-    <row r="9054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9054" s="1"/>
-    </row>
-    <row r="9055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9055" s="1"/>
-    </row>
-    <row r="9056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9056" s="1"/>
-    </row>
-    <row r="9057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9057" s="1"/>
-    </row>
-    <row r="9058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9058" s="1"/>
-    </row>
-    <row r="9059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9059" s="1"/>
-    </row>
-    <row r="9060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9060" s="1"/>
-    </row>
-    <row r="9061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9061" s="1"/>
-    </row>
-    <row r="9062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9062" s="1"/>
-    </row>
-    <row r="9063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9063" s="1"/>
-    </row>
-    <row r="9064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9064" s="1"/>
-    </row>
-    <row r="9065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9065" s="1"/>
-    </row>
-    <row r="9066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9066" s="1"/>
-    </row>
-    <row r="9067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9067" s="1"/>
-    </row>
-    <row r="9068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9068" s="1"/>
-    </row>
-    <row r="9069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9069" s="1"/>
-    </row>
-    <row r="9070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9070" s="1"/>
-    </row>
-    <row r="9071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9071" s="1"/>
-    </row>
-    <row r="9072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9072" s="1"/>
-    </row>
-    <row r="9073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9073" s="1"/>
-    </row>
-    <row r="9074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9074" s="1"/>
-    </row>
-    <row r="9075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9075" s="1"/>
-    </row>
-    <row r="9076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9076" s="1"/>
-    </row>
-    <row r="9077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9077" s="1"/>
-    </row>
-    <row r="9078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9078" s="1"/>
-    </row>
-    <row r="9079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9079" s="1"/>
-    </row>
-    <row r="9080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9080" s="1"/>
-    </row>
-    <row r="9081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9081" s="1"/>
-    </row>
-    <row r="9082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9082" s="1"/>
-    </row>
-    <row r="9083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9083" s="1"/>
-    </row>
-    <row r="9084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9084" s="1"/>
-    </row>
-    <row r="9085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9085" s="1"/>
-    </row>
-    <row r="9086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9086" s="1"/>
-    </row>
-    <row r="9087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9087" s="1"/>
-    </row>
-    <row r="9088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9088" s="1"/>
-    </row>
-    <row r="9089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9089" s="1"/>
-    </row>
-    <row r="9090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9090" s="1"/>
-    </row>
-    <row r="9091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9091" s="1"/>
-    </row>
-    <row r="9092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9092" s="1"/>
-    </row>
-    <row r="9093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9093" s="1"/>
-    </row>
-    <row r="9094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9094" s="1"/>
-    </row>
-    <row r="9095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9095" s="1"/>
-    </row>
-    <row r="9096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9096" s="1"/>
-    </row>
-    <row r="9097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9097" s="1"/>
-    </row>
-    <row r="9098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9098" s="1"/>
-    </row>
-    <row r="9099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9099" s="1"/>
-    </row>
-    <row r="9100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9100" s="1"/>
-    </row>
-    <row r="9101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9101" s="1"/>
-    </row>
-    <row r="9102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9102" s="1"/>
-    </row>
-    <row r="9103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9103" s="1"/>
-    </row>
-    <row r="9104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9104" s="1"/>
-    </row>
-    <row r="9105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9105" s="1"/>
-    </row>
-    <row r="9106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9106" s="1"/>
-    </row>
-    <row r="9107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9107" s="1"/>
-    </row>
-    <row r="9108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9108" s="1"/>
-    </row>
-    <row r="9109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9109" s="1"/>
-    </row>
-    <row r="9110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9110" s="1"/>
-    </row>
-    <row r="9111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9111" s="1"/>
-    </row>
-    <row r="9112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9112" s="1"/>
-    </row>
-    <row r="9113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9113" s="1"/>
-    </row>
-    <row r="9114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9114" s="1"/>
-    </row>
-    <row r="9115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9115" s="1"/>
-    </row>
-    <row r="9116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9116" s="1"/>
-    </row>
-    <row r="9117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9117" s="1"/>
-    </row>
-    <row r="9118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9118" s="1"/>
-    </row>
-    <row r="9119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9119" s="1"/>
-    </row>
-    <row r="9120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9120" s="1"/>
-    </row>
-    <row r="9121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9121" s="1"/>
-    </row>
-    <row r="9122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9122" s="1"/>
-    </row>
-    <row r="9123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9123" s="1"/>
-    </row>
-    <row r="9124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9124" s="1"/>
-    </row>
-    <row r="9125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9125" s="1"/>
-    </row>
-    <row r="9126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9126" s="1"/>
-    </row>
-    <row r="9127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9127" s="1"/>
-    </row>
-    <row r="9128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9128" s="1"/>
-    </row>
-    <row r="9129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9129" s="1"/>
-    </row>
-    <row r="9130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9130" s="1"/>
-    </row>
-    <row r="9131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9131" s="1"/>
-    </row>
-    <row r="9132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9132" s="1"/>
-    </row>
-    <row r="9133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9133" s="1"/>
-    </row>
-    <row r="9134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9134" s="1"/>
-    </row>
-    <row r="9135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9135" s="1"/>
-    </row>
-    <row r="9136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9136" s="1"/>
-    </row>
-    <row r="9137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9137" s="1"/>
-    </row>
-    <row r="9138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9138" s="1"/>
-    </row>
-    <row r="9139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9139" s="1"/>
-    </row>
-    <row r="9140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9140" s="1"/>
-    </row>
-    <row r="9141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9141" s="1"/>
-    </row>
-    <row r="9142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9142" s="1"/>
-    </row>
-    <row r="9143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9143" s="1"/>
-    </row>
-    <row r="9144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9144" s="1"/>
-    </row>
-    <row r="9145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9145" s="1"/>
-    </row>
-    <row r="9146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9146" s="1"/>
-    </row>
-    <row r="9147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9147" s="1"/>
-    </row>
-    <row r="9148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9148" s="1"/>
-    </row>
-    <row r="9149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9149" s="1"/>
-    </row>
-    <row r="9150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9150" s="1"/>
-    </row>
-    <row r="9151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9151" s="1"/>
-    </row>
-    <row r="9152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9152" s="1"/>
-    </row>
-    <row r="9153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9153" s="1"/>
-    </row>
-    <row r="9154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9154" s="1"/>
-    </row>
-    <row r="9155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9155" s="1"/>
-    </row>
-    <row r="9156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9156" s="1"/>
-    </row>
-    <row r="9157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9157" s="1"/>
-    </row>
-    <row r="9158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9158" s="1"/>
-    </row>
-    <row r="9159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9159" s="1"/>
-    </row>
-    <row r="9160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9160" s="1"/>
-    </row>
-    <row r="9161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9161" s="1"/>
-    </row>
-    <row r="9162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9162" s="1"/>
-    </row>
-    <row r="9163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9163" s="1"/>
-    </row>
-    <row r="9164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9164" s="1"/>
-    </row>
-    <row r="9165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9165" s="1"/>
-    </row>
-    <row r="9166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9166" s="1"/>
-    </row>
-    <row r="9167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9167" s="1"/>
-    </row>
-    <row r="9168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9168" s="1"/>
-    </row>
-    <row r="9169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9169" s="1"/>
-    </row>
-    <row r="9170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9170" s="1"/>
-    </row>
-    <row r="9171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9171" s="1"/>
-    </row>
-    <row r="9172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9172" s="1"/>
-    </row>
-    <row r="9173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9173" s="1"/>
-    </row>
-    <row r="9174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9174" s="1"/>
-    </row>
-    <row r="9175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9175" s="1"/>
-    </row>
-    <row r="9176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9176" s="1"/>
-    </row>
-    <row r="9177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9177" s="1"/>
-    </row>
-    <row r="9178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9178" s="1"/>
-    </row>
-    <row r="9179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9179" s="1"/>
-    </row>
-    <row r="9180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9180" s="1"/>
-    </row>
-    <row r="9181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9181" s="1"/>
-    </row>
-    <row r="9182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9182" s="1"/>
-    </row>
-    <row r="9183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9183" s="1"/>
-    </row>
-    <row r="9184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9184" s="1"/>
-    </row>
-    <row r="9185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9185" s="1"/>
-    </row>
-    <row r="9186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9186" s="1"/>
-    </row>
-    <row r="9187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9187" s="1"/>
-    </row>
-    <row r="9188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9188" s="1"/>
-    </row>
-    <row r="9189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9189" s="1"/>
-    </row>
-    <row r="9190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9190" s="1"/>
-    </row>
-    <row r="9191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9191" s="1"/>
-    </row>
-    <row r="9192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9192" s="1"/>
-    </row>
-    <row r="9193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9193" s="1"/>
-    </row>
-    <row r="9194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9194" s="1"/>
-    </row>
-    <row r="9195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9195" s="1"/>
-    </row>
-    <row r="9196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9196" s="1"/>
-    </row>
-    <row r="9197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9197" s="1"/>
-    </row>
-    <row r="9198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9198" s="1"/>
-    </row>
-    <row r="9199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9199" s="1"/>
-    </row>
-    <row r="9200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9200" s="1"/>
-    </row>
-    <row r="9201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9201" s="1"/>
-    </row>
-    <row r="9202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9202" s="1"/>
-    </row>
-    <row r="9203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9203" s="1"/>
-    </row>
-    <row r="9204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9204" s="1"/>
-    </row>
-    <row r="9205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9205" s="1"/>
-    </row>
-    <row r="9206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9206" s="1"/>
-    </row>
-    <row r="9207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9207" s="1"/>
-    </row>
-    <row r="9208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9208" s="1"/>
-    </row>
-    <row r="9209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9209" s="1"/>
-    </row>
-    <row r="9210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9210" s="1"/>
-    </row>
-    <row r="9211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9211" s="1"/>
-    </row>
-    <row r="9212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9212" s="1"/>
-    </row>
-    <row r="9213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9213" s="1"/>
-    </row>
-    <row r="9214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9214" s="1"/>
-    </row>
-    <row r="9215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9215" s="1"/>
-    </row>
-    <row r="9216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9216" s="1"/>
-    </row>
-    <row r="9217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9217" s="1"/>
-    </row>
-    <row r="9218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9218" s="1"/>
-    </row>
-    <row r="9219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9219" s="1"/>
-    </row>
-    <row r="9220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9220" s="1"/>
-    </row>
-    <row r="9221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9221" s="1"/>
-    </row>
-    <row r="9222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9222" s="1"/>
-    </row>
-    <row r="9223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9223" s="1"/>
-    </row>
-    <row r="9224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9224" s="1"/>
-    </row>
-    <row r="9225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9225" s="1"/>
-    </row>
-    <row r="9226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9226" s="1"/>
-    </row>
-    <row r="9227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9227" s="1"/>
-    </row>
-    <row r="9228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9228" s="1"/>
-    </row>
-    <row r="9229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9229" s="1"/>
-    </row>
-    <row r="9230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9230" s="1"/>
-    </row>
-    <row r="9231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9231" s="1"/>
-    </row>
-    <row r="9232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9232" s="1"/>
-    </row>
-    <row r="9233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9233" s="1"/>
-    </row>
-    <row r="9234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9234" s="1"/>
-    </row>
-    <row r="9235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9235" s="1"/>
-    </row>
-    <row r="9236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9236" s="1"/>
-    </row>
-    <row r="9237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9237" s="1"/>
-    </row>
-    <row r="9238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9238" s="1"/>
-    </row>
-    <row r="9239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9239" s="1"/>
-    </row>
-    <row r="9240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9240" s="1"/>
-    </row>
-    <row r="9241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9241" s="1"/>
-    </row>
-    <row r="9242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9242" s="1"/>
-    </row>
-    <row r="9243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9243" s="1"/>
-    </row>
-    <row r="9244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9244" s="1"/>
-    </row>
-    <row r="9245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9245" s="1"/>
-    </row>
-    <row r="9246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9246" s="1"/>
-    </row>
-    <row r="9247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9247" s="1"/>
-    </row>
-    <row r="9248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9248" s="1"/>
-    </row>
-    <row r="9249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9249" s="1"/>
-    </row>
-    <row r="9250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9250" s="1"/>
-    </row>
-    <row r="9251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9251" s="1"/>
-    </row>
-    <row r="9252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9252" s="1"/>
-    </row>
-    <row r="9253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9253" s="1"/>
-    </row>
-    <row r="9254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9254" s="1"/>
-    </row>
-    <row r="9255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9255" s="1"/>
-    </row>
-    <row r="9256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9256" s="1"/>
-    </row>
-    <row r="9257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9257" s="1"/>
-    </row>
-    <row r="9258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9258" s="1"/>
-    </row>
-    <row r="9259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9259" s="1"/>
-    </row>
-    <row r="9260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9260" s="1"/>
-    </row>
-    <row r="9261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9261" s="1"/>
-    </row>
-    <row r="9262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9262" s="1"/>
-    </row>
-    <row r="9263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9263" s="1"/>
-    </row>
-    <row r="9264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9264" s="1"/>
-    </row>
-    <row r="9265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9265" s="1"/>
-    </row>
-    <row r="9266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9266" s="1"/>
-    </row>
-    <row r="9267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9267" s="1"/>
-    </row>
-    <row r="9268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9268" s="1"/>
-    </row>
-    <row r="9269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9269" s="1"/>
-    </row>
-    <row r="9270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9270" s="1"/>
-    </row>
-    <row r="9271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9271" s="1"/>
-    </row>
-    <row r="9272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9272" s="1"/>
-    </row>
-    <row r="9273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9273" s="1"/>
-    </row>
-    <row r="9274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9274" s="1"/>
-    </row>
-    <row r="9275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9275" s="1"/>
-    </row>
-    <row r="9276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9276" s="1"/>
-    </row>
-    <row r="9277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9277" s="1"/>
-    </row>
-    <row r="9278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9278" s="1"/>
-    </row>
-    <row r="9279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9279" s="1"/>
-    </row>
-    <row r="9280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9280" s="1"/>
-    </row>
-    <row r="9281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9281" s="1"/>
-    </row>
-    <row r="9282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9282" s="1"/>
-    </row>
-    <row r="9283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9283" s="1"/>
-    </row>
-    <row r="9284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9284" s="1"/>
-    </row>
-    <row r="9285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9285" s="1"/>
-    </row>
-    <row r="9286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9286" s="1"/>
-    </row>
-    <row r="9287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9287" s="1"/>
-    </row>
-    <row r="9288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9288" s="1"/>
-    </row>
-    <row r="9289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9289" s="1"/>
-    </row>
-    <row r="9290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9290" s="1"/>
-    </row>
-    <row r="9291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9291" s="1"/>
-    </row>
-    <row r="9292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9292" s="1"/>
-    </row>
-    <row r="9293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9293" s="1"/>
-    </row>
-    <row r="9294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9294" s="1"/>
-    </row>
-    <row r="9295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9295" s="1"/>
-    </row>
-    <row r="9296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9296" s="1"/>
-    </row>
-    <row r="9297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9297" s="1"/>
-    </row>
-    <row r="9298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9298" s="1"/>
-    </row>
-    <row r="9299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9299" s="1"/>
-    </row>
-    <row r="9300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9300" s="1"/>
-    </row>
-    <row r="9301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9301" s="1"/>
-    </row>
-    <row r="9302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9302" s="1"/>
-    </row>
-    <row r="9303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9303" s="1"/>
-    </row>
-    <row r="9304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9304" s="1"/>
-    </row>
-    <row r="9305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9305" s="1"/>
-    </row>
-    <row r="9306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9306" s="1"/>
-    </row>
-    <row r="9307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9307" s="1"/>
-    </row>
-    <row r="9308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9308" s="1"/>
-    </row>
-    <row r="9309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9309" s="1"/>
-    </row>
-    <row r="9310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9310" s="1"/>
-    </row>
-    <row r="9311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9311" s="1"/>
-    </row>
-    <row r="9312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9312" s="1"/>
-    </row>
-    <row r="9313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9313" s="1"/>
-    </row>
-    <row r="9314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9314" s="1"/>
-    </row>
-    <row r="9315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9315" s="1"/>
-    </row>
-    <row r="9316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9316" s="1"/>
-    </row>
-    <row r="9317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9317" s="1"/>
-    </row>
-    <row r="9318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9318" s="1"/>
-    </row>
-    <row r="9319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9319" s="1"/>
-    </row>
-    <row r="9320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9320" s="1"/>
-    </row>
-    <row r="9321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9321" s="1"/>
-    </row>
-    <row r="9322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9322" s="1"/>
-    </row>
-    <row r="9323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9323" s="1"/>
-    </row>
-    <row r="9324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9324" s="1"/>
-    </row>
-    <row r="9325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9325" s="1"/>
-    </row>
-    <row r="9326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9326" s="1"/>
-    </row>
-    <row r="9327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9327" s="1"/>
-    </row>
-    <row r="9328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9328" s="1"/>
-    </row>
-    <row r="9329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9329" s="1"/>
-    </row>
-    <row r="9330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9330" s="1"/>
-    </row>
-    <row r="9331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9331" s="1"/>
-    </row>
-    <row r="9332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9332" s="1"/>
-    </row>
-    <row r="9333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9333" s="1"/>
-    </row>
-    <row r="9334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9334" s="1"/>
-    </row>
-    <row r="9335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9335" s="1"/>
-    </row>
-    <row r="9336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9336" s="1"/>
-    </row>
-    <row r="9337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9337" s="1"/>
-    </row>
-    <row r="9338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9338" s="1"/>
-    </row>
-    <row r="9339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9339" s="1"/>
-    </row>
-    <row r="9340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9340" s="1"/>
-    </row>
-    <row r="9341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9341" s="1"/>
-    </row>
-    <row r="9342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9342" s="1"/>
-    </row>
-    <row r="9343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9343" s="1"/>
-    </row>
-    <row r="9344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9344" s="1"/>
-    </row>
-    <row r="9345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9345" s="1"/>
-    </row>
-    <row r="9346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9346" s="1"/>
-    </row>
-    <row r="9347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9347" s="1"/>
-    </row>
-    <row r="9348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9348" s="1"/>
-    </row>
-    <row r="9349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9349" s="1"/>
-    </row>
-    <row r="9350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9350" s="1"/>
-    </row>
-    <row r="9351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9351" s="1"/>
-    </row>
-    <row r="9352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9352" s="1"/>
-    </row>
-    <row r="9353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9353" s="1"/>
-    </row>
-    <row r="9354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9354" s="1"/>
-    </row>
-    <row r="9355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9355" s="1"/>
-    </row>
-    <row r="9356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9356" s="1"/>
-    </row>
-    <row r="9357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9357" s="1"/>
-    </row>
-    <row r="9358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9358" s="1"/>
-    </row>
-    <row r="9359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9359" s="1"/>
-    </row>
-    <row r="9360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9360" s="1"/>
-    </row>
-    <row r="9361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9361" s="1"/>
-    </row>
-    <row r="9362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9362" s="1"/>
-    </row>
-    <row r="9363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9363" s="1"/>
-    </row>
-    <row r="9364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9364" s="1"/>
-    </row>
-    <row r="9365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9365" s="1"/>
-    </row>
-    <row r="9366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9366" s="1"/>
-    </row>
-    <row r="9367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9367" s="1"/>
-    </row>
-    <row r="9368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9368" s="1"/>
-    </row>
-    <row r="9369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9369" s="1"/>
-    </row>
-    <row r="9370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9370" s="1"/>
-    </row>
-    <row r="9371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9371" s="1"/>
-    </row>
-    <row r="9372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9372" s="1"/>
-    </row>
-    <row r="9373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9373" s="1"/>
-    </row>
-    <row r="9374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9374" s="1"/>
-    </row>
-    <row r="9375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9375" s="1"/>
-    </row>
-    <row r="9376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9376" s="1"/>
-    </row>
-    <row r="9377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9377" s="1"/>
-    </row>
-    <row r="9378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9378" s="1"/>
-    </row>
-    <row r="9379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9379" s="1"/>
-    </row>
-    <row r="9380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9380" s="1"/>
-    </row>
-    <row r="9381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9381" s="1"/>
-    </row>
-    <row r="9382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9382" s="1"/>
-    </row>
-    <row r="9383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9383" s="1"/>
-    </row>
-    <row r="9384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9384" s="1"/>
-    </row>
-    <row r="9385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9385" s="1"/>
-    </row>
-    <row r="9386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9386" s="1"/>
-    </row>
-    <row r="9387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9387" s="1"/>
-    </row>
-    <row r="9388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9388" s="1"/>
-    </row>
-    <row r="9389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9389" s="1"/>
-    </row>
-    <row r="9390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9390" s="1"/>
-    </row>
-    <row r="9391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9391" s="1"/>
-    </row>
-    <row r="9392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9392" s="1"/>
-    </row>
-    <row r="9393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9393" s="1"/>
-    </row>
-    <row r="9394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9394" s="1"/>
-    </row>
-    <row r="9395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9395" s="1"/>
-    </row>
-    <row r="9396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9396" s="1"/>
-    </row>
-    <row r="9397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9397" s="1"/>
-    </row>
-    <row r="9398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9398" s="1"/>
-    </row>
-    <row r="9399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9399" s="1"/>
-    </row>
-    <row r="9400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9400" s="1"/>
-    </row>
-    <row r="9401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9401" s="1"/>
-    </row>
-    <row r="9402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9402" s="1"/>
-    </row>
-    <row r="9403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9403" s="1"/>
-    </row>
-    <row r="9404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9404" s="1"/>
-    </row>
-    <row r="9405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9405" s="1"/>
-    </row>
-    <row r="9406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9406" s="1"/>
-    </row>
-    <row r="9407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9407" s="1"/>
-    </row>
-    <row r="9408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9408" s="1"/>
-    </row>
-    <row r="9409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9409" s="1"/>
-    </row>
-    <row r="9410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9410" s="1"/>
-    </row>
-    <row r="9411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9411" s="1"/>
-    </row>
-    <row r="9412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9412" s="1"/>
-    </row>
-    <row r="9413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9413" s="1"/>
-    </row>
-    <row r="9414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9414" s="1"/>
-    </row>
-    <row r="9415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9415" s="1"/>
-    </row>
-    <row r="9416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9416" s="1"/>
-    </row>
-    <row r="9417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9417" s="1"/>
-    </row>
-    <row r="9418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9418" s="1"/>
-    </row>
-    <row r="9419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9419" s="1"/>
-    </row>
-    <row r="9420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9420" s="1"/>
-    </row>
-    <row r="9421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9421" s="1"/>
-    </row>
-    <row r="9422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9422" s="1"/>
-    </row>
-    <row r="9423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9423" s="1"/>
-    </row>
-    <row r="9424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9424" s="1"/>
-    </row>
-    <row r="9425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9425" s="1"/>
-    </row>
-    <row r="9426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9426" s="1"/>
-    </row>
-    <row r="9427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9427" s="1"/>
-    </row>
-    <row r="9428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9428" s="1"/>
-    </row>
-    <row r="9429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9429" s="1"/>
-    </row>
-    <row r="9430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9430" s="1"/>
-    </row>
-    <row r="9431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9431" s="1"/>
-    </row>
-    <row r="9432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9432" s="1"/>
-    </row>
-    <row r="9433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9433" s="1"/>
-    </row>
-    <row r="9434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9434" s="1"/>
-    </row>
-    <row r="9435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9435" s="1"/>
-    </row>
-    <row r="9436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9436" s="1"/>
-    </row>
-    <row r="9437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9437" s="1"/>
-    </row>
-    <row r="9438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9438" s="1"/>
-    </row>
-    <row r="9439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9439" s="1"/>
-    </row>
-    <row r="9440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9440" s="1"/>
-    </row>
-    <row r="9441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9441" s="1"/>
-    </row>
-    <row r="9442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9442" s="1"/>
-    </row>
-    <row r="9443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9443" s="1"/>
-    </row>
-    <row r="9444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9444" s="1"/>
-    </row>
-    <row r="9445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9445" s="1"/>
-    </row>
-    <row r="9446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9446" s="1"/>
-    </row>
-    <row r="9447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9447" s="1"/>
-    </row>
-    <row r="9448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9448" s="1"/>
-    </row>
-    <row r="9449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9449" s="1"/>
-    </row>
-    <row r="9450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9450" s="1"/>
-    </row>
-    <row r="9451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9451" s="1"/>
-    </row>
-    <row r="9452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9452" s="1"/>
-    </row>
-    <row r="9453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9453" s="1"/>
-    </row>
-    <row r="9454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9454" s="1"/>
-    </row>
-    <row r="9455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9455" s="1"/>
-    </row>
-    <row r="9456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9456" s="1"/>
-    </row>
-    <row r="9457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9457" s="1"/>
-    </row>
-    <row r="9458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9458" s="1"/>
-    </row>
-    <row r="9459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9459" s="1"/>
-    </row>
-    <row r="9460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9460" s="1"/>
-    </row>
-    <row r="9461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9461" s="1"/>
-    </row>
-    <row r="9462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9462" s="1"/>
-    </row>
-    <row r="9463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9463" s="1"/>
-    </row>
-    <row r="9464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9464" s="1"/>
-    </row>
-    <row r="9465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9465" s="1"/>
-    </row>
-    <row r="9466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9466" s="1"/>
-    </row>
-    <row r="9467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9467" s="1"/>
-    </row>
-    <row r="9468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9468" s="1"/>
-    </row>
-    <row r="9469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9469" s="1"/>
-    </row>
-    <row r="9470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9470" s="1"/>
-    </row>
-    <row r="9471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9471" s="1"/>
-    </row>
-    <row r="9472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9472" s="1"/>
-    </row>
-    <row r="9473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9473" s="1"/>
-    </row>
-    <row r="9474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9474" s="1"/>
-    </row>
-    <row r="9475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9475" s="1"/>
-    </row>
-    <row r="9476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9476" s="1"/>
-    </row>
-    <row r="9477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9477" s="1"/>
-    </row>
-    <row r="9478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9478" s="1"/>
-    </row>
-    <row r="9479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9479" s="1"/>
-    </row>
-    <row r="9480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9480" s="1"/>
-    </row>
-    <row r="9481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9481" s="1"/>
-    </row>
-    <row r="9482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9482" s="1"/>
-    </row>
-    <row r="9483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9483" s="1"/>
-    </row>
-    <row r="9484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9484" s="1"/>
-    </row>
-    <row r="9485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9485" s="1"/>
-    </row>
-    <row r="9486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9486" s="1"/>
-    </row>
-    <row r="9487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9487" s="1"/>
-    </row>
-    <row r="9488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9488" s="1"/>
-    </row>
-    <row r="9489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9489" s="1"/>
-    </row>
-    <row r="9490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9490" s="1"/>
-    </row>
-    <row r="9491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9491" s="1"/>
-    </row>
-    <row r="9492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9492" s="1"/>
-    </row>
-    <row r="9493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9493" s="1"/>
-    </row>
-    <row r="9494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9494" s="1"/>
-    </row>
-    <row r="9495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9495" s="1"/>
-    </row>
-    <row r="9496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9496" s="1"/>
-    </row>
-    <row r="9497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9497" s="1"/>
-    </row>
-    <row r="9498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9498" s="1"/>
-    </row>
-    <row r="9499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9499" s="1"/>
-    </row>
-    <row r="9500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9500" s="1"/>
-    </row>
-    <row r="9501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9501" s="1"/>
-    </row>
-    <row r="9502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9502" s="1"/>
-    </row>
-    <row r="9503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9503" s="1"/>
-    </row>
-    <row r="9504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9504" s="1"/>
-    </row>
-    <row r="9505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9505" s="1"/>
-    </row>
-    <row r="9506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9506" s="1"/>
-    </row>
-    <row r="9507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9507" s="1"/>
-    </row>
-    <row r="9508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9508" s="1"/>
-    </row>
-    <row r="9509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9509" s="1"/>
-    </row>
-    <row r="9510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9510" s="1"/>
-    </row>
-    <row r="9511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9511" s="1"/>
-    </row>
-    <row r="9512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9512" s="1"/>
-    </row>
-    <row r="9513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9513" s="1"/>
-    </row>
-    <row r="9514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9514" s="1"/>
-    </row>
-    <row r="9515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9515" s="1"/>
-    </row>
-    <row r="9516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9516" s="1"/>
-    </row>
-    <row r="9517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9517" s="1"/>
-    </row>
-    <row r="9518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9518" s="1"/>
-    </row>
-    <row r="9519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9519" s="1"/>
-    </row>
-    <row r="9520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9520" s="1"/>
-    </row>
-    <row r="9521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9521" s="1"/>
-    </row>
-    <row r="9522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9522" s="1"/>
-    </row>
-    <row r="9523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9523" s="1"/>
-    </row>
-    <row r="9524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9524" s="1"/>
-    </row>
-    <row r="9525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9525" s="1"/>
-    </row>
-    <row r="9526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9526" s="1"/>
-    </row>
-    <row r="9527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9527" s="1"/>
-    </row>
-    <row r="9528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9528" s="1"/>
-    </row>
-    <row r="9529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9529" s="1"/>
-    </row>
-    <row r="9530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9530" s="1"/>
-    </row>
-    <row r="9531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9531" s="1"/>
-    </row>
-    <row r="9532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9532" s="1"/>
-    </row>
-    <row r="9533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9533" s="1"/>
-    </row>
-    <row r="9534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9534" s="1"/>
-    </row>
-    <row r="9535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9535" s="1"/>
-    </row>
-    <row r="9536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9536" s="1"/>
-    </row>
-    <row r="9537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9537" s="1"/>
-    </row>
-    <row r="9538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9538" s="1"/>
-    </row>
-    <row r="9539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9539" s="1"/>
-    </row>
-    <row r="9540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9540" s="1"/>
-    </row>
-    <row r="9541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9541" s="1"/>
-    </row>
-    <row r="9542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9542" s="1"/>
-    </row>
-    <row r="9543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9543" s="1"/>
-    </row>
-    <row r="9544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9544" s="1"/>
-    </row>
-    <row r="9545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9545" s="1"/>
-    </row>
-    <row r="9546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9546" s="1"/>
-    </row>
-    <row r="9547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9547" s="1"/>
-    </row>
-    <row r="9548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9548" s="1"/>
-    </row>
-    <row r="9549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9549" s="1"/>
-    </row>
-    <row r="9550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9550" s="1"/>
-    </row>
-    <row r="9551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9551" s="1"/>
-    </row>
-    <row r="9552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9552" s="1"/>
-    </row>
-    <row r="9553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9553" s="1"/>
-    </row>
-    <row r="9554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9554" s="1"/>
-    </row>
-    <row r="9555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9555" s="1"/>
-    </row>
-    <row r="9556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9556" s="1"/>
-    </row>
-    <row r="9557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9557" s="1"/>
-    </row>
-    <row r="9558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9558" s="1"/>
-    </row>
-    <row r="9559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9559" s="1"/>
-    </row>
-    <row r="9560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9560" s="1"/>
-    </row>
-    <row r="9561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9561" s="1"/>
-    </row>
-    <row r="9562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9562" s="1"/>
-    </row>
-    <row r="9563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9563" s="1"/>
-    </row>
-    <row r="9564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9564" s="1"/>
-    </row>
-    <row r="9565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9565" s="1"/>
-    </row>
-    <row r="9566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9566" s="1"/>
-    </row>
-    <row r="9567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9567" s="1"/>
-    </row>
-    <row r="9568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9568" s="1"/>
-    </row>
-    <row r="9569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9569" s="1"/>
-    </row>
-    <row r="9570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9570" s="1"/>
-    </row>
-    <row r="9571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9571" s="1"/>
-    </row>
-    <row r="9572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9572" s="1"/>
-    </row>
-    <row r="9573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9573" s="1"/>
-    </row>
-    <row r="9574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9574" s="1"/>
-    </row>
-    <row r="9575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9575" s="1"/>
-    </row>
-    <row r="9576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9576" s="1"/>
-    </row>
-    <row r="9577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9577" s="1"/>
-    </row>
-    <row r="9578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9578" s="1"/>
-    </row>
-    <row r="9579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9579" s="1"/>
-    </row>
-    <row r="9580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9580" s="1"/>
-    </row>
-    <row r="9581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9581" s="1"/>
-    </row>
-    <row r="9582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9582" s="1"/>
-    </row>
-    <row r="9583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9583" s="1"/>
-    </row>
-    <row r="9584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9584" s="1"/>
-    </row>
-    <row r="9585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9585" s="1"/>
-    </row>
-    <row r="9586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9586" s="1"/>
-    </row>
-    <row r="9587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9587" s="1"/>
-    </row>
-    <row r="9588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9588" s="1"/>
-    </row>
-    <row r="9589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9589" s="1"/>
-    </row>
-    <row r="9590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9590" s="1"/>
-    </row>
-    <row r="9591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9591" s="1"/>
-    </row>
-    <row r="9592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9592" s="1"/>
-    </row>
-    <row r="9593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9593" s="1"/>
-    </row>
-    <row r="9594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9594" s="1"/>
-    </row>
-    <row r="9595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9595" s="1"/>
-    </row>
-    <row r="9596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9596" s="1"/>
-    </row>
-    <row r="9597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9597" s="1"/>
-    </row>
-    <row r="9598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9598" s="1"/>
-    </row>
-    <row r="9599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9599" s="1"/>
-    </row>
-    <row r="9600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9600" s="1"/>
-    </row>
-    <row r="9601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9601" s="1"/>
-    </row>
-    <row r="9602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9602" s="1"/>
-    </row>
-    <row r="9603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9603" s="1"/>
-    </row>
-    <row r="9604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9604" s="1"/>
-    </row>
-    <row r="9605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9605" s="1"/>
-    </row>
-    <row r="9606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9606" s="1"/>
-    </row>
-    <row r="9607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9607" s="1"/>
-    </row>
-    <row r="9608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9608" s="1"/>
-    </row>
-    <row r="9609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9609" s="1"/>
-    </row>
-    <row r="9610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9610" s="1"/>
-    </row>
-    <row r="9611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9611" s="1"/>
-    </row>
-    <row r="9612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9612" s="1"/>
-    </row>
-    <row r="9613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9613" s="1"/>
-    </row>
-    <row r="9614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9614" s="1"/>
-    </row>
-    <row r="9615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9615" s="1"/>
-    </row>
-    <row r="9616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9616" s="1"/>
-    </row>
-    <row r="9617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9617" s="1"/>
-    </row>
-    <row r="9618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9618" s="1"/>
-    </row>
-    <row r="9619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9619" s="1"/>
-    </row>
-    <row r="9620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9620" s="1"/>
-    </row>
-    <row r="9621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9621" s="1"/>
-    </row>
-    <row r="9622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9622" s="1"/>
-    </row>
-    <row r="9623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9623" s="1"/>
-    </row>
-    <row r="9624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9624" s="1"/>
-    </row>
-    <row r="9625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9625" s="1"/>
-    </row>
-    <row r="9626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9626" s="1"/>
-    </row>
-    <row r="9627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9627" s="1"/>
-    </row>
-    <row r="9628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9628" s="1"/>
-    </row>
-    <row r="9629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9629" s="1"/>
-    </row>
-    <row r="9630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9630" s="1"/>
-    </row>
-    <row r="9631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9631" s="1"/>
-    </row>
-    <row r="9632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9632" s="1"/>
-    </row>
-    <row r="9633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9633" s="1"/>
-    </row>
-    <row r="9634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9634" s="1"/>
-    </row>
-    <row r="9635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9635" s="1"/>
-    </row>
-    <row r="9636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9636" s="1"/>
-    </row>
-    <row r="9637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9637" s="1"/>
-    </row>
-    <row r="9638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9638" s="1"/>
-    </row>
-    <row r="9639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9639" s="1"/>
-    </row>
-    <row r="9640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9640" s="1"/>
-    </row>
-    <row r="9641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9641" s="1"/>
-    </row>
-    <row r="9642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9642" s="1"/>
-    </row>
-    <row r="9643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9643" s="1"/>
-    </row>
-    <row r="9644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9644" s="1"/>
-    </row>
-    <row r="9645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9645" s="1"/>
-    </row>
-    <row r="9646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9646" s="1"/>
-    </row>
-    <row r="9647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9647" s="1"/>
-    </row>
-    <row r="9648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9648" s="1"/>
-    </row>
-    <row r="9649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9649" s="1"/>
-    </row>
-    <row r="9650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9650" s="1"/>
-    </row>
-    <row r="9651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9651" s="1"/>
-    </row>
-    <row r="9652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9652" s="1"/>
-    </row>
-    <row r="9653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9653" s="1"/>
-    </row>
-    <row r="9654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9654" s="1"/>
-    </row>
-    <row r="9655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9655" s="1"/>
-    </row>
-    <row r="9656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9656" s="1"/>
-    </row>
-    <row r="9657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9657" s="1"/>
-    </row>
-    <row r="9658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9658" s="1"/>
-    </row>
-    <row r="9659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9659" s="1"/>
-    </row>
-    <row r="9660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9660" s="1"/>
-    </row>
-    <row r="9661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9661" s="1"/>
-    </row>
-    <row r="9662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9662" s="1"/>
-    </row>
-    <row r="9663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9663" s="1"/>
-    </row>
-    <row r="9664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9664" s="1"/>
-    </row>
-    <row r="9665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9665" s="1"/>
-    </row>
-    <row r="9666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9666" s="1"/>
-    </row>
-    <row r="9667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9667" s="1"/>
-    </row>
-    <row r="9668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9668" s="1"/>
-    </row>
-    <row r="9669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9669" s="1"/>
-    </row>
-    <row r="9670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9670" s="1"/>
-    </row>
-    <row r="9671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9671" s="1"/>
-    </row>
-    <row r="9672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9672" s="1"/>
-    </row>
-    <row r="9673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9673" s="1"/>
-    </row>
-    <row r="9674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9674" s="1"/>
-    </row>
-    <row r="9675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9675" s="1"/>
-    </row>
-    <row r="9676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9676" s="1"/>
-    </row>
-    <row r="9677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9677" s="1"/>
-    </row>
-    <row r="9678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9678" s="1"/>
-    </row>
-    <row r="9679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9679" s="1"/>
-    </row>
-    <row r="9680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9680" s="1"/>
-    </row>
-    <row r="9681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9681" s="1"/>
-    </row>
-    <row r="9682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9682" s="1"/>
-    </row>
-    <row r="9683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9683" s="1"/>
-    </row>
-    <row r="9684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9684" s="1"/>
-    </row>
-    <row r="9685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9685" s="1"/>
-    </row>
-    <row r="9686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9686" s="1"/>
-    </row>
-    <row r="9687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9687" s="1"/>
-    </row>
-    <row r="9688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9688" s="1"/>
-    </row>
-    <row r="9689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9689" s="1"/>
-    </row>
-    <row r="9690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9690" s="1"/>
-    </row>
-    <row r="9691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9691" s="1"/>
-    </row>
-    <row r="9692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9692" s="1"/>
-    </row>
-    <row r="9693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9693" s="1"/>
-    </row>
-    <row r="9694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9694" s="1"/>
-    </row>
-    <row r="9695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9695" s="1"/>
-    </row>
-    <row r="9696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9696" s="1"/>
-    </row>
-    <row r="9697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9697" s="1"/>
-    </row>
-    <row r="9698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9698" s="1"/>
-    </row>
-    <row r="9699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9699" s="1"/>
-    </row>
-    <row r="9700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9700" s="1"/>
-    </row>
-    <row r="9701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9701" s="1"/>
-    </row>
-    <row r="9702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9702" s="1"/>
-    </row>
-    <row r="9703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9703" s="1"/>
-    </row>
-    <row r="9704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9704" s="1"/>
-    </row>
-    <row r="9705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9705" s="1"/>
-    </row>
-    <row r="9706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9706" s="1"/>
-    </row>
-    <row r="9707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9707" s="1"/>
-    </row>
-    <row r="9708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9708" s="1"/>
-    </row>
-    <row r="9709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9709" s="1"/>
-    </row>
-    <row r="9710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9710" s="1"/>
-    </row>
-    <row r="9711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9711" s="1"/>
-    </row>
-    <row r="9712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9712" s="1"/>
-    </row>
-    <row r="9713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9713" s="1"/>
-    </row>
-    <row r="9714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9714" s="1"/>
-    </row>
-    <row r="9715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9715" s="1"/>
-    </row>
-    <row r="9716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9716" s="1"/>
-    </row>
-    <row r="9717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9717" s="1"/>
-    </row>
-    <row r="9718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9718" s="1"/>
-    </row>
-    <row r="9719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9719" s="1"/>
-    </row>
-    <row r="9720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9720" s="1"/>
-    </row>
-    <row r="9721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9721" s="1"/>
-    </row>
-    <row r="9722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9722" s="1"/>
-    </row>
-    <row r="9723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9723" s="1"/>
-    </row>
-    <row r="9724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9724" s="1"/>
-    </row>
-    <row r="9725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9725" s="1"/>
-    </row>
-    <row r="9726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9726" s="1"/>
-    </row>
-    <row r="9727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9727" s="1"/>
-    </row>
-    <row r="9728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9728" s="1"/>
-    </row>
-    <row r="9729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9729" s="1"/>
-    </row>
-    <row r="9730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9730" s="1"/>
-    </row>
-    <row r="9731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9731" s="1"/>
-    </row>
-    <row r="9732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9732" s="1"/>
-    </row>
-    <row r="9733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9733" s="1"/>
-    </row>
-    <row r="9734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9734" s="1"/>
-    </row>
-    <row r="9735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9735" s="1"/>
-    </row>
-    <row r="9736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9736" s="1"/>
-    </row>
-    <row r="9737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9737" s="1"/>
-    </row>
-    <row r="9738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9738" s="1"/>
-    </row>
-    <row r="9739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9739" s="1"/>
-    </row>
-    <row r="9740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9740" s="1"/>
-    </row>
-    <row r="9741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9741" s="1"/>
-    </row>
-    <row r="9742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9742" s="1"/>
-    </row>
-    <row r="9743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9743" s="1"/>
-    </row>
-    <row r="9744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9744" s="1"/>
-    </row>
-    <row r="9745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9745" s="1"/>
-    </row>
-    <row r="9746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9746" s="1"/>
-    </row>
-    <row r="9747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9747" s="1"/>
-    </row>
-    <row r="9748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9748" s="1"/>
-    </row>
-    <row r="9749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9749" s="1"/>
-    </row>
-    <row r="9750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9750" s="1"/>
-    </row>
-    <row r="9751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9751" s="1"/>
-    </row>
-    <row r="9752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9752" s="1"/>
-    </row>
-    <row r="9753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9753" s="1"/>
-    </row>
-    <row r="9754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9754" s="1"/>
-    </row>
-    <row r="9755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9755" s="1"/>
-    </row>
-    <row r="9756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9756" s="1"/>
-    </row>
-    <row r="9757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9757" s="1"/>
-    </row>
-    <row r="9758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9758" s="1"/>
-    </row>
-    <row r="9759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9759" s="1"/>
-    </row>
-    <row r="9760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9760" s="1"/>
-    </row>
-    <row r="9761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9761" s="1"/>
-    </row>
-    <row r="9762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9762" s="1"/>
-    </row>
-    <row r="9763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9763" s="1"/>
-    </row>
-    <row r="9764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9764" s="1"/>
-    </row>
-    <row r="9765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9765" s="1"/>
-    </row>
-    <row r="9766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9766" s="1"/>
-    </row>
-    <row r="9767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9767" s="1"/>
-    </row>
-    <row r="9768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9768" s="1"/>
-    </row>
-    <row r="9769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9769" s="1"/>
-    </row>
-    <row r="9770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9770" s="1"/>
-    </row>
-    <row r="9771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9771" s="1"/>
-    </row>
-    <row r="9772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9772" s="1"/>
-    </row>
-    <row r="9773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9773" s="1"/>
-    </row>
-    <row r="9774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9774" s="1"/>
-    </row>
-    <row r="9775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9775" s="1"/>
-    </row>
-    <row r="9776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9776" s="1"/>
-    </row>
-    <row r="9777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9777" s="1"/>
-    </row>
-    <row r="9778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9778" s="1"/>
-    </row>
-    <row r="9779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9779" s="1"/>
-    </row>
-    <row r="9780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9780" s="1"/>
-    </row>
-    <row r="9781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9781" s="1"/>
-    </row>
-    <row r="9782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9782" s="1"/>
-    </row>
-    <row r="9783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9783" s="1"/>
-    </row>
-    <row r="9784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9784" s="1"/>
-    </row>
-    <row r="9785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9785" s="1"/>
-    </row>
-    <row r="9786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9786" s="1"/>
-    </row>
-    <row r="9787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9787" s="1"/>
-    </row>
-    <row r="9788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9788" s="1"/>
-    </row>
-    <row r="9789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9789" s="1"/>
-    </row>
-    <row r="9790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9790" s="1"/>
-    </row>
-    <row r="9791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9791" s="1"/>
-    </row>
-    <row r="9792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9792" s="1"/>
-    </row>
-    <row r="9793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9793" s="1"/>
-    </row>
-    <row r="9794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9794" s="1"/>
-    </row>
-    <row r="9795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9795" s="1"/>
-    </row>
-    <row r="9796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9796" s="1"/>
-    </row>
-    <row r="9797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9797" s="1"/>
-    </row>
-    <row r="9798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9798" s="1"/>
-    </row>
-    <row r="9799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9799" s="1"/>
-    </row>
-    <row r="9800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9800" s="1"/>
-    </row>
-    <row r="9801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9801" s="1"/>
-    </row>
-    <row r="9802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9802" s="1"/>
-    </row>
-    <row r="9803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9803" s="1"/>
-    </row>
-    <row r="9804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9804" s="1"/>
-    </row>
-    <row r="9805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9805" s="1"/>
-    </row>
-    <row r="9806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9806" s="1"/>
-    </row>
-    <row r="9807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9807" s="1"/>
-    </row>
-    <row r="9808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9808" s="1"/>
-    </row>
-    <row r="9809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9809" s="1"/>
-    </row>
-    <row r="9810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9810" s="1"/>
-    </row>
-    <row r="9811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9811" s="1"/>
-    </row>
-    <row r="9812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9812" s="1"/>
-    </row>
-    <row r="9813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9813" s="1"/>
-    </row>
-    <row r="9814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9814" s="1"/>
-    </row>
-    <row r="9815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9815" s="1"/>
-    </row>
-    <row r="9816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9816" s="1"/>
-    </row>
-    <row r="9817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9817" s="1"/>
-    </row>
-    <row r="9818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9818" s="1"/>
-    </row>
-    <row r="9819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9819" s="1"/>
-    </row>
-    <row r="9820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9820" s="1"/>
-    </row>
-    <row r="9821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9821" s="1"/>
-    </row>
-    <row r="9822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9822" s="1"/>
-    </row>
-    <row r="9823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9823" s="1"/>
-    </row>
-    <row r="9824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9824" s="1"/>
-    </row>
-    <row r="9825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9825" s="1"/>
-    </row>
-    <row r="9826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9826" s="1"/>
-    </row>
-    <row r="9827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9827" s="1"/>
-    </row>
-    <row r="9828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9828" s="1"/>
-    </row>
-    <row r="9829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9829" s="1"/>
-    </row>
-    <row r="9830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9830" s="1"/>
-    </row>
-    <row r="9831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9831" s="1"/>
-    </row>
-    <row r="9832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9832" s="1"/>
-    </row>
-    <row r="9833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9833" s="1"/>
-    </row>
-    <row r="9834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9834" s="1"/>
-    </row>
-    <row r="9835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9835" s="1"/>
-    </row>
-    <row r="9836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9836" s="1"/>
-    </row>
-    <row r="9837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9837" s="1"/>
-    </row>
-    <row r="9838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9838" s="1"/>
-    </row>
-    <row r="9839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9839" s="1"/>
-    </row>
-    <row r="9840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9840" s="1"/>
-    </row>
-    <row r="9841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9841" s="1"/>
-    </row>
-    <row r="9842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9842" s="1"/>
-    </row>
-    <row r="9843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9843" s="1"/>
-    </row>
-    <row r="9844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9844" s="1"/>
-    </row>
-    <row r="9845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9845" s="1"/>
-    </row>
-    <row r="9846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9846" s="1"/>
-    </row>
-    <row r="9847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9847" s="1"/>
-    </row>
-    <row r="9848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9848" s="1"/>
-    </row>
-    <row r="9849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9849" s="1"/>
-    </row>
-    <row r="9850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9850" s="1"/>
-    </row>
-    <row r="9851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9851" s="1"/>
-    </row>
-    <row r="9852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9852" s="1"/>
-    </row>
-    <row r="9853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9853" s="1"/>
-    </row>
-    <row r="9854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9854" s="1"/>
-    </row>
-    <row r="9855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9855" s="1"/>
-    </row>
-    <row r="9856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9856" s="1"/>
-    </row>
-    <row r="9857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9857" s="1"/>
-    </row>
-    <row r="9858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9858" s="1"/>
-    </row>
-    <row r="9859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9859" s="1"/>
-    </row>
-    <row r="9860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9860" s="1"/>
-    </row>
-    <row r="9861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9861" s="1"/>
-    </row>
-    <row r="9862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9862" s="1"/>
-    </row>
-    <row r="9863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9863" s="1"/>
-    </row>
-    <row r="9864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9864" s="1"/>
-    </row>
-    <row r="9865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9865" s="1"/>
-    </row>
-    <row r="9866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9866" s="1"/>
-    </row>
-    <row r="9867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9867" s="1"/>
-    </row>
-    <row r="9868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9868" s="1"/>
-    </row>
-    <row r="9869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9869" s="1"/>
-    </row>
-    <row r="9870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9870" s="1"/>
-    </row>
-    <row r="9871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9871" s="1"/>
-    </row>
-    <row r="9872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9872" s="1"/>
-    </row>
-    <row r="9873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9873" s="1"/>
-    </row>
-    <row r="9874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9874" s="1"/>
-    </row>
-    <row r="9875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9875" s="1"/>
-    </row>
-    <row r="9876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9876" s="1"/>
-    </row>
-    <row r="9877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9877" s="1"/>
-    </row>
-    <row r="9878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9878" s="1"/>
-    </row>
-    <row r="9879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9879" s="1"/>
-    </row>
-    <row r="9880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9880" s="1"/>
-    </row>
-    <row r="9881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9881" s="1"/>
-    </row>
-    <row r="9882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9882" s="1"/>
-    </row>
-    <row r="9883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9883" s="1"/>
-    </row>
-    <row r="9884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9884" s="1"/>
-    </row>
-    <row r="9885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9885" s="1"/>
-    </row>
-    <row r="9886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9886" s="1"/>
-    </row>
-    <row r="9887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9887" s="1"/>
-    </row>
-    <row r="9888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9888" s="1"/>
-    </row>
-    <row r="9889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9889" s="1"/>
-    </row>
-    <row r="9890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9890" s="1"/>
-    </row>
-    <row r="9891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9891" s="1"/>
-    </row>
-    <row r="9892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9892" s="1"/>
-    </row>
-    <row r="9893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9893" s="1"/>
-    </row>
-    <row r="9894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9894" s="1"/>
-    </row>
-    <row r="9895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9895" s="1"/>
-    </row>
-    <row r="9896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9896" s="1"/>
-    </row>
-    <row r="9897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9897" s="1"/>
-    </row>
-    <row r="9898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9898" s="1"/>
-    </row>
-    <row r="9899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9899" s="1"/>
-    </row>
-    <row r="9900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9900" s="1"/>
-    </row>
-    <row r="9901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9901" s="1"/>
-    </row>
-    <row r="9902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9902" s="1"/>
-    </row>
-    <row r="9903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9903" s="1"/>
-    </row>
-    <row r="9904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9904" s="1"/>
-    </row>
-    <row r="9905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9905" s="1"/>
-    </row>
-    <row r="9906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9906" s="1"/>
-    </row>
-    <row r="9907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9907" s="1"/>
-    </row>
-    <row r="9908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9908" s="1"/>
-    </row>
-    <row r="9909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9909" s="1"/>
-    </row>
-    <row r="9910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9910" s="1"/>
-    </row>
-    <row r="9911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9911" s="1"/>
-    </row>
-    <row r="9912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9912" s="1"/>
-    </row>
-    <row r="9913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9913" s="1"/>
-    </row>
-    <row r="9914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9914" s="1"/>
-    </row>
-    <row r="9915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9915" s="1"/>
-    </row>
-    <row r="9916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9916" s="1"/>
-    </row>
-    <row r="9917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9917" s="1"/>
-    </row>
-    <row r="9918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9918" s="1"/>
-    </row>
-    <row r="9919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9919" s="1"/>
-    </row>
-    <row r="9920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9920" s="1"/>
-    </row>
-    <row r="9921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9921" s="1"/>
-    </row>
-    <row r="9922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9922" s="1"/>
-    </row>
-    <row r="9923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9923" s="1"/>
-    </row>
-    <row r="9924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9924" s="1"/>
-    </row>
-    <row r="9925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9925" s="1"/>
-    </row>
-    <row r="9926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9926" s="1"/>
-    </row>
-    <row r="9927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9927" s="1"/>
-    </row>
-    <row r="9928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9928" s="1"/>
-    </row>
-    <row r="9929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9929" s="1"/>
-    </row>
-    <row r="9930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9930" s="1"/>
-    </row>
-    <row r="9931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9931" s="1"/>
-    </row>
-    <row r="9932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9932" s="1"/>
-    </row>
-    <row r="9933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9933" s="1"/>
-    </row>
-    <row r="9934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9934" s="1"/>
-    </row>
-    <row r="9935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9935" s="1"/>
-    </row>
-    <row r="9936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9936" s="1"/>
-    </row>
-    <row r="9937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9937" s="1"/>
-    </row>
-    <row r="9938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9938" s="1"/>
-    </row>
-    <row r="9939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9939" s="1"/>
-    </row>
-    <row r="9940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9940" s="1"/>
-    </row>
-    <row r="9941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9941" s="1"/>
-    </row>
-    <row r="9942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9942" s="1"/>
-    </row>
-    <row r="9943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9943" s="1"/>
-    </row>
-    <row r="9944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9944" s="1"/>
-    </row>
-    <row r="9945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9945" s="1"/>
-    </row>
-    <row r="9946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9946" s="1"/>
-    </row>
-    <row r="9947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9947" s="1"/>
-    </row>
-    <row r="9948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9948" s="1"/>
-    </row>
-    <row r="9949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9949" s="1"/>
-    </row>
-    <row r="9950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9950" s="1"/>
-    </row>
-    <row r="9951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9951" s="1"/>
-    </row>
-    <row r="9952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9952" s="1"/>
-    </row>
-    <row r="9953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9953" s="1"/>
-    </row>
-    <row r="9954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9954" s="1"/>
-    </row>
-    <row r="9955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9955" s="1"/>
-    </row>
-    <row r="9956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9956" s="1"/>
-    </row>
-    <row r="9957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9957" s="1"/>
-    </row>
-    <row r="9958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9958" s="1"/>
-    </row>
-    <row r="9959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9959" s="1"/>
-    </row>
-    <row r="9960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9960" s="1"/>
-    </row>
-    <row r="9961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9961" s="1"/>
-    </row>
-    <row r="9962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9962" s="1"/>
-    </row>
-    <row r="9963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9963" s="1"/>
-    </row>
-    <row r="9964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9964" s="1"/>
-    </row>
-    <row r="9965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9965" s="1"/>
-    </row>
-    <row r="9966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9966" s="1"/>
-    </row>
-    <row r="9967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9967" s="1"/>
-    </row>
-    <row r="9968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9968" s="1"/>
-    </row>
-    <row r="9969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9969" s="1"/>
-    </row>
-    <row r="9970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9970" s="1"/>
-    </row>
-    <row r="9971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9971" s="1"/>
-    </row>
-    <row r="9972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9972" s="1"/>
-    </row>
-    <row r="9973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9973" s="1"/>
-    </row>
-    <row r="9974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9974" s="1"/>
-    </row>
-    <row r="9975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9975" s="1"/>
-    </row>
-    <row r="9976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9976" s="1"/>
-    </row>
-    <row r="9977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9977" s="1"/>
-    </row>
-    <row r="9978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9978" s="1"/>
-    </row>
-    <row r="9979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9979" s="1"/>
-    </row>
-    <row r="9980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9980" s="1"/>
-    </row>
-    <row r="9981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9981" s="1"/>
-    </row>
-    <row r="9982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9982" s="1"/>
-    </row>
-    <row r="9983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9983" s="1"/>
-    </row>
-    <row r="9984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9984" s="1"/>
-    </row>
-    <row r="9985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9985" s="1"/>
-    </row>
-    <row r="9986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9986" s="1"/>
-    </row>
-    <row r="9987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9987" s="1"/>
-    </row>
-    <row r="9988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9988" s="1"/>
-    </row>
-    <row r="9989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9989" s="1"/>
-    </row>
-    <row r="9990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9990" s="1"/>
-    </row>
-    <row r="9991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9991" s="1"/>
-    </row>
-    <row r="9992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9992" s="1"/>
-    </row>
-    <row r="9993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9993" s="1"/>
-    </row>
-    <row r="9994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9994" s="1"/>
-    </row>
-    <row r="9995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9995" s="1"/>
-    </row>
-    <row r="9996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9996" s="1"/>
-    </row>
-    <row r="9997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9997" s="1"/>
-    </row>
-    <row r="9998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9998" s="1"/>
-    </row>
-    <row r="9999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9999" s="1"/>
-    </row>
-    <row r="10000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10000" s="1"/>
-    </row>
-    <row r="10001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10001" s="1"/>
-    </row>
-    <row r="10002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10002" s="1"/>
-    </row>
-    <row r="10003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10003" s="1"/>
-    </row>
-    <row r="10004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10004" s="1"/>
-    </row>
-    <row r="10005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10005" s="1"/>
-    </row>
-    <row r="10006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10006" s="1"/>
-    </row>
-    <row r="10007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10007" s="1"/>
-    </row>
-    <row r="10008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10008" s="1"/>
-    </row>
-    <row r="10009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10009" s="1"/>
-    </row>
-    <row r="10010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10010" s="1"/>
-    </row>
-    <row r="10011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10011" s="1"/>
-    </row>
-    <row r="10012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10012" s="1"/>
-    </row>
-    <row r="10013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10013" s="1"/>
-    </row>
-    <row r="10014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10014" s="1"/>
-    </row>
-    <row r="10015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10015" s="1"/>
-    </row>
-    <row r="10016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10016" s="1"/>
-    </row>
-    <row r="10017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10017" s="1"/>
-    </row>
-    <row r="10018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10018" s="1"/>
-    </row>
-    <row r="10019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10019" s="1"/>
-    </row>
-    <row r="10020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10020" s="1"/>
-    </row>
-    <row r="10021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10021" s="1"/>
-    </row>
-    <row r="10022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10022" s="1"/>
-    </row>
-    <row r="10023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10023" s="1"/>
-    </row>
-    <row r="10024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10024" s="1"/>
-    </row>
-    <row r="10025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10025" s="1"/>
-    </row>
-    <row r="10026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10026" s="1"/>
-    </row>
-    <row r="10027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10027" s="1"/>
-    </row>
-    <row r="10028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10028" s="1"/>
-    </row>
-    <row r="10029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10029" s="1"/>
-    </row>
-    <row r="10030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10030" s="1"/>
-    </row>
-    <row r="10031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10031" s="1"/>
-    </row>
-    <row r="10032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10032" s="1"/>
-    </row>
-    <row r="10033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10033" s="1"/>
-    </row>
-    <row r="10034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10034" s="1"/>
-    </row>
-    <row r="10035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10035" s="1"/>
-    </row>
-    <row r="10036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10036" s="1"/>
-    </row>
-    <row r="10037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10037" s="1"/>
-    </row>
-    <row r="10038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10038" s="1"/>
-    </row>
-    <row r="10039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10039" s="1"/>
-    </row>
-    <row r="10040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10040" s="1"/>
-    </row>
-    <row r="10041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10041" s="1"/>
-    </row>
-    <row r="10042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10042" s="1"/>
-    </row>
-    <row r="10043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10043" s="1"/>
-    </row>
-    <row r="10044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10044" s="1"/>
-    </row>
-    <row r="10045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10045" s="1"/>
-    </row>
-    <row r="10046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10046" s="1"/>
-    </row>
-    <row r="10047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10047" s="1"/>
-    </row>
-    <row r="10048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10048" s="1"/>
-    </row>
-    <row r="10049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10049" s="1"/>
-    </row>
-    <row r="10050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10050" s="1"/>
-    </row>
-    <row r="10051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10051" s="1"/>
-    </row>
-    <row r="10052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10052" s="1"/>
-    </row>
-    <row r="10053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10053" s="1"/>
-    </row>
-    <row r="10054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10054" s="1"/>
-    </row>
-    <row r="10055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10055" s="1"/>
-    </row>
-    <row r="10056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10056" s="1"/>
-    </row>
-    <row r="10057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10057" s="1"/>
-    </row>
-    <row r="10058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10058" s="1"/>
-    </row>
-    <row r="10059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10059" s="1"/>
-    </row>
-    <row r="10060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10060" s="1"/>
-    </row>
-    <row r="10061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10061" s="1"/>
-    </row>
-    <row r="10062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10062" s="1"/>
-    </row>
-    <row r="10063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10063" s="1"/>
-    </row>
-    <row r="10064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10064" s="1"/>
-    </row>
-    <row r="10065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10065" s="1"/>
-    </row>
-    <row r="10066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10066" s="1"/>
-    </row>
-    <row r="10067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10067" s="1"/>
-    </row>
-    <row r="10068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10068" s="1"/>
-    </row>
-    <row r="10069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10069" s="1"/>
-    </row>
-    <row r="10070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10070" s="1"/>
-    </row>
-    <row r="10071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10071" s="1"/>
-    </row>
-    <row r="10072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10072" s="1"/>
-    </row>
-    <row r="10073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10073" s="1"/>
-    </row>
-    <row r="10074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10074" s="1"/>
-    </row>
-    <row r="10075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10075" s="1"/>
-    </row>
-    <row r="10076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10076" s="1"/>
-    </row>
-    <row r="10077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10077" s="1"/>
-    </row>
-    <row r="10078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10078" s="1"/>
-    </row>
-    <row r="10079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10079" s="1"/>
-    </row>
-    <row r="10080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10080" s="1"/>
-    </row>
-    <row r="10081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10081" s="1"/>
-    </row>
-    <row r="10082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10082" s="1"/>
-    </row>
-    <row r="10083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10083" s="1"/>
-    </row>
-    <row r="10084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10084" s="1"/>
-    </row>
-    <row r="10085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10085" s="1"/>
-    </row>
-    <row r="10086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10086" s="1"/>
-    </row>
-    <row r="10087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10087" s="1"/>
-    </row>
-    <row r="10088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10088" s="1"/>
-    </row>
-    <row r="10089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10089" s="1"/>
-    </row>
-    <row r="10090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10090" s="1"/>
-    </row>
-    <row r="10091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10091" s="1"/>
-    </row>
-    <row r="10092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10092" s="1"/>
-    </row>
-    <row r="10093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10093" s="1"/>
-    </row>
-    <row r="10094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10094" s="1"/>
-    </row>
-    <row r="10095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10095" s="1"/>
-    </row>
-    <row r="10096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10096" s="1"/>
-    </row>
-    <row r="10097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10097" s="1"/>
-    </row>
-    <row r="10098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10098" s="1"/>
-    </row>
-    <row r="10099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10099" s="1"/>
-    </row>
-    <row r="10100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10100" s="1"/>
-    </row>
-    <row r="10101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10101" s="1"/>
-    </row>
-    <row r="10102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10102" s="1"/>
-    </row>
-    <row r="10103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10103" s="1"/>
-    </row>
-    <row r="10104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10104" s="1"/>
-    </row>
-    <row r="10105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10105" s="1"/>
-    </row>
-    <row r="10106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10106" s="1"/>
-    </row>
-    <row r="10107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10107" s="1"/>
-    </row>
-    <row r="10108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10108" s="1"/>
-    </row>
-    <row r="10109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10109" s="1"/>
-    </row>
-    <row r="10110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10110" s="1"/>
-    </row>
-    <row r="10111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10111" s="1"/>
-    </row>
-    <row r="10112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10112" s="1"/>
-    </row>
-    <row r="10113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10113" s="1"/>
-    </row>
-    <row r="10114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10114" s="1"/>
-    </row>
-    <row r="10115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10115" s="1"/>
-    </row>
-    <row r="10116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10116" s="1"/>
-    </row>
-    <row r="10117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10117" s="1"/>
-    </row>
-    <row r="10118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10118" s="1"/>
-    </row>
-    <row r="10119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10119" s="1"/>
-    </row>
-    <row r="10120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10120" s="1"/>
-    </row>
-    <row r="10121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10121" s="1"/>
-    </row>
-    <row r="10122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10122" s="1"/>
-    </row>
-    <row r="10123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10123" s="1"/>
-    </row>
-    <row r="10124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10124" s="1"/>
-    </row>
-    <row r="10125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10125" s="1"/>
-    </row>
-    <row r="10126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10126" s="1"/>
-    </row>
-    <row r="10127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10127" s="1"/>
-    </row>
-    <row r="10128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10128" s="1"/>
-    </row>
-    <row r="10129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10129" s="1"/>
-    </row>
-    <row r="10130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10130" s="1"/>
-    </row>
-    <row r="10131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10131" s="1"/>
-    </row>
-    <row r="10132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10132" s="1"/>
-    </row>
-    <row r="10133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10133" s="1"/>
-    </row>
-    <row r="10134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10134" s="1"/>
-    </row>
-    <row r="10135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10135" s="1"/>
-    </row>
-    <row r="10136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10136" s="1"/>
-    </row>
-    <row r="10137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10137" s="1"/>
-    </row>
-    <row r="10138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10138" s="1"/>
-    </row>
-    <row r="10139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10139" s="1"/>
-    </row>
-    <row r="10140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10140" s="1"/>
-    </row>
-    <row r="10141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10141" s="1"/>
-    </row>
-    <row r="10142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10142" s="1"/>
-    </row>
-    <row r="10143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10143" s="1"/>
-    </row>
-    <row r="10144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10144" s="1"/>
-    </row>
-    <row r="10145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10145" s="1"/>
-    </row>
-    <row r="10146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10146" s="1"/>
-    </row>
-    <row r="10147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10147" s="1"/>
-    </row>
-    <row r="10148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10148" s="1"/>
-    </row>
-    <row r="10149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10149" s="1"/>
-    </row>
-    <row r="10150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10150" s="1"/>
-    </row>
-    <row r="10151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10151" s="1"/>
-    </row>
-    <row r="10152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10152" s="1"/>
-    </row>
-    <row r="10153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10153" s="1"/>
-    </row>
-    <row r="10154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10154" s="1"/>
-    </row>
-    <row r="10155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10155" s="1"/>
-    </row>
-    <row r="10156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10156" s="1"/>
-    </row>
-    <row r="10157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10157" s="1"/>
-    </row>
-    <row r="10158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10158" s="1"/>
-    </row>
-    <row r="10159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10159" s="1"/>
-    </row>
-    <row r="10160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10160" s="1"/>
-    </row>
-    <row r="10161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10161" s="1"/>
-    </row>
-    <row r="10162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10162" s="1"/>
-    </row>
-    <row r="10163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10163" s="1"/>
-    </row>
-    <row r="10164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10164" s="1"/>
-    </row>
-    <row r="10165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10165" s="1"/>
-    </row>
-    <row r="10166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10166" s="1"/>
-    </row>
-    <row r="10167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10167" s="1"/>
-    </row>
-    <row r="10168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10168" s="1"/>
-    </row>
-    <row r="10169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10169" s="1"/>
-    </row>
-    <row r="10170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10170" s="1"/>
-    </row>
-    <row r="10171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10171" s="1"/>
-    </row>
-    <row r="10172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10172" s="1"/>
-    </row>
-    <row r="10173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10173" s="1"/>
-    </row>
-    <row r="10174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10174" s="1"/>
-    </row>
-    <row r="10175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10175" s="1"/>
-    </row>
-    <row r="10176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10176" s="1"/>
-    </row>
-    <row r="10177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10177" s="1"/>
-    </row>
-    <row r="10178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10178" s="1"/>
-    </row>
-    <row r="10179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10179" s="1"/>
-    </row>
-    <row r="10180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10180" s="1"/>
-    </row>
-    <row r="10181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10181" s="1"/>
-    </row>
-    <row r="10182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10182" s="1"/>
-    </row>
-    <row r="10183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10183" s="1"/>
-    </row>
-    <row r="10184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10184" s="1"/>
-    </row>
-    <row r="10185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10185" s="1"/>
-    </row>
-    <row r="10186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10186" s="1"/>
-    </row>
-    <row r="10187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10187" s="1"/>
-    </row>
-    <row r="10188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10188" s="1"/>
-    </row>
-    <row r="10189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10189" s="1"/>
-    </row>
-    <row r="10190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10190" s="1"/>
-    </row>
-    <row r="10191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10191" s="1"/>
-    </row>
-    <row r="10192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10192" s="1"/>
-    </row>
-    <row r="10193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10193" s="1"/>
-    </row>
-    <row r="10194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10194" s="1"/>
-    </row>
-    <row r="10195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10195" s="1"/>
-    </row>
-    <row r="10196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10196" s="1"/>
-    </row>
-    <row r="10197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10197" s="1"/>
-    </row>
-    <row r="10198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10198" s="1"/>
-    </row>
-    <row r="10199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10199" s="1"/>
-    </row>
-    <row r="10200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10200" s="1"/>
-    </row>
-    <row r="10201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10201" s="1"/>
-    </row>
-    <row r="10202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10202" s="1"/>
-    </row>
-    <row r="10203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10203" s="1"/>
-    </row>
-    <row r="10204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10204" s="1"/>
-    </row>
-    <row r="10205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10205" s="1"/>
-    </row>
-    <row r="10206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10206" s="1"/>
-    </row>
-    <row r="10207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10207" s="1"/>
-    </row>
-    <row r="10208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10208" s="1"/>
-    </row>
-    <row r="10209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10209" s="1"/>
-    </row>
-    <row r="10210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10210" s="1"/>
-    </row>
-    <row r="10211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10211" s="1"/>
-    </row>
-    <row r="10212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10212" s="1"/>
-    </row>
-    <row r="10213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10213" s="1"/>
-    </row>
-    <row r="10214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10214" s="1"/>
-    </row>
-    <row r="10215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10215" s="1"/>
-    </row>
-    <row r="10216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10216" s="1"/>
-    </row>
-    <row r="10217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10217" s="1"/>
-    </row>
-    <row r="10218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10218" s="1"/>
-    </row>
-    <row r="10219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10219" s="1"/>
-    </row>
-    <row r="10220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10220" s="1"/>
-    </row>
-    <row r="10221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10221" s="1"/>
-    </row>
-    <row r="10222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10222" s="1"/>
-    </row>
-    <row r="10223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10223" s="1"/>
-    </row>
-    <row r="10224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10224" s="1"/>
-    </row>
-    <row r="10225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10225" s="1"/>
-    </row>
-    <row r="10226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10226" s="1"/>
-    </row>
-    <row r="10227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10227" s="1"/>
-    </row>
-    <row r="10228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10228" s="1"/>
-    </row>
-    <row r="10229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10229" s="1"/>
-    </row>
-    <row r="10230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10230" s="1"/>
-    </row>
-    <row r="10231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10231" s="1"/>
-    </row>
-    <row r="10232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10232" s="1"/>
-    </row>
-    <row r="10233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10233" s="1"/>
-    </row>
-    <row r="10234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10234" s="1"/>
-    </row>
-    <row r="10235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10235" s="1"/>
-    </row>
-    <row r="10236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10236" s="1"/>
-    </row>
-    <row r="10237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10237" s="1"/>
-    </row>
-    <row r="10238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10238" s="1"/>
-    </row>
-    <row r="10239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10239" s="1"/>
-    </row>
-    <row r="10240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10240" s="1"/>
-    </row>
-    <row r="10241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10241" s="1"/>
-    </row>
-    <row r="10242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10242" s="1"/>
-    </row>
-    <row r="10243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10243" s="1"/>
-    </row>
-    <row r="10244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10244" s="1"/>
-    </row>
-    <row r="10245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10245" s="1"/>
-    </row>
-    <row r="10246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10246" s="1"/>
-    </row>
-    <row r="10247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10247" s="1"/>
-    </row>
-    <row r="10248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10248" s="1"/>
-    </row>
-    <row r="10249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10249" s="1"/>
-    </row>
-    <row r="10250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10250" s="1"/>
-    </row>
-    <row r="10251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10251" s="1"/>
-    </row>
-    <row r="10252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10252" s="1"/>
-    </row>
-    <row r="10253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10253" s="1"/>
-    </row>
-    <row r="10254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10254" s="1"/>
-    </row>
-    <row r="10255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10255" s="1"/>
-    </row>
-    <row r="10256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10256" s="1"/>
-    </row>
-    <row r="10257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10257" s="1"/>
-    </row>
-    <row r="10258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10258" s="1"/>
-    </row>
-    <row r="10259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10259" s="1"/>
-    </row>
-    <row r="10260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10260" s="1"/>
-    </row>
-    <row r="10261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10261" s="1"/>
-    </row>
-    <row r="10262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10262" s="1"/>
-    </row>
-    <row r="10263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10263" s="1"/>
-    </row>
-    <row r="10264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10264" s="1"/>
-    </row>
-    <row r="10265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10265" s="1"/>
-    </row>
-    <row r="10266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10266" s="1"/>
-    </row>
-    <row r="10267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10267" s="1"/>
-    </row>
-    <row r="10268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10268" s="1"/>
-    </row>
-    <row r="10269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10269" s="1"/>
-    </row>
-    <row r="10270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10270" s="1"/>
-    </row>
-    <row r="10271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10271" s="1"/>
-    </row>
-    <row r="10272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10272" s="1"/>
-    </row>
-    <row r="10273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10273" s="1"/>
-    </row>
-    <row r="10274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10274" s="1"/>
-    </row>
-    <row r="10275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10275" s="1"/>
-    </row>
-    <row r="10276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10276" s="1"/>
-    </row>
-    <row r="10277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10277" s="1"/>
-    </row>
-    <row r="10278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10278" s="1"/>
-    </row>
-    <row r="10279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10279" s="1"/>
-    </row>
-    <row r="10280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10280" s="1"/>
-    </row>
-    <row r="10281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10281" s="1"/>
-    </row>
-    <row r="10282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10282" s="1"/>
-    </row>
-    <row r="10283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10283" s="1"/>
-    </row>
-    <row r="10284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10284" s="1"/>
-    </row>
-    <row r="10285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10285" s="1"/>
-    </row>
-    <row r="10286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10286" s="1"/>
-    </row>
-    <row r="10287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10287" s="1"/>
-    </row>
-    <row r="10288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10288" s="1"/>
-    </row>
-    <row r="10289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10289" s="1"/>
-    </row>
-    <row r="10290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10290" s="1"/>
-    </row>
-    <row r="10291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10291" s="1"/>
-    </row>
-    <row r="10292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10292" s="1"/>
-    </row>
-    <row r="10293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10293" s="1"/>
-    </row>
-    <row r="10294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10294" s="1"/>
-    </row>
-    <row r="10295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10295" s="1"/>
-    </row>
-    <row r="10296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10296" s="1"/>
-    </row>
-    <row r="10297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10297" s="1"/>
-    </row>
-    <row r="10298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10298" s="1"/>
-    </row>
-    <row r="10299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10299" s="1"/>
-    </row>
-    <row r="10300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10300" s="1"/>
-    </row>
-    <row r="10301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10301" s="1"/>
-    </row>
-    <row r="10302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10302" s="1"/>
-    </row>
-    <row r="10303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10303" s="1"/>
-    </row>
-    <row r="10304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10304" s="1"/>
-    </row>
-    <row r="10305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10305" s="1"/>
-    </row>
-    <row r="10306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10306" s="1"/>
-    </row>
-    <row r="10307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10307" s="1"/>
-    </row>
-    <row r="10308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10308" s="1"/>
-    </row>
-    <row r="10309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10309" s="1"/>
-    </row>
-    <row r="10310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10310" s="1"/>
-    </row>
-    <row r="10311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10311" s="1"/>
-    </row>
-    <row r="10312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10312" s="1"/>
-    </row>
-    <row r="10313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10313" s="1"/>
-    </row>
-    <row r="10314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10314" s="1"/>
-    </row>
-    <row r="10315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10315" s="1"/>
-    </row>
-    <row r="10316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10316" s="1"/>
-    </row>
-    <row r="10317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10317" s="1"/>
-    </row>
-    <row r="10318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10318" s="1"/>
-    </row>
-    <row r="10319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10319" s="1"/>
-    </row>
-    <row r="10320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10320" s="1"/>
-    </row>
-    <row r="10321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10321" s="1"/>
-    </row>
-    <row r="10322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10322" s="1"/>
-    </row>
-    <row r="10323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10323" s="1"/>
-    </row>
-    <row r="10324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10324" s="1"/>
-    </row>
-    <row r="10325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10325" s="1"/>
-    </row>
-    <row r="10326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10326" s="1"/>
-    </row>
-    <row r="10327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10327" s="1"/>
-    </row>
-    <row r="10328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10328" s="1"/>
-    </row>
-    <row r="10329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10329" s="1"/>
-    </row>
-    <row r="10330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10330" s="1"/>
-    </row>
-    <row r="10331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10331" s="1"/>
-    </row>
-    <row r="10332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10332" s="1"/>
-    </row>
-    <row r="10333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10333" s="1"/>
-    </row>
-    <row r="10334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10334" s="1"/>
-    </row>
-    <row r="10335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10335" s="1"/>
-    </row>
-    <row r="10336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10336" s="1"/>
-    </row>
-    <row r="10337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10337" s="1"/>
-    </row>
-    <row r="10338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10338" s="1"/>
-    </row>
-    <row r="10339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10339" s="1"/>
-    </row>
-    <row r="10340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10340" s="1"/>
-    </row>
-    <row r="10341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10341" s="1"/>
-    </row>
-    <row r="10342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10342" s="1"/>
-    </row>
-    <row r="10343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10343" s="1"/>
-    </row>
-    <row r="10344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10344" s="1"/>
-    </row>
-    <row r="10345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10345" s="1"/>
-    </row>
-    <row r="10346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10346" s="1"/>
-    </row>
-    <row r="10347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10347" s="1"/>
-    </row>
-    <row r="10348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10348" s="1"/>
-    </row>
-    <row r="10349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10349" s="1"/>
-    </row>
-    <row r="10350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10350" s="1"/>
-    </row>
-    <row r="10351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10351" s="1"/>
-    </row>
-    <row r="10352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10352" s="1"/>
-    </row>
-    <row r="10353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10353" s="1"/>
-    </row>
-    <row r="10354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10354" s="1"/>
-    </row>
-    <row r="10355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10355" s="1"/>
-    </row>
-    <row r="10356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10356" s="1"/>
-    </row>
-    <row r="10357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10357" s="1"/>
-    </row>
-    <row r="10358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10358" s="1"/>
-    </row>
-    <row r="10359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10359" s="1"/>
-    </row>
-    <row r="10360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10360" s="1"/>
-    </row>
-    <row r="10361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10361" s="1"/>
-    </row>
-    <row r="10362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10362" s="1"/>
-    </row>
-    <row r="10363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10363" s="1"/>
-    </row>
-    <row r="10364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10364" s="1"/>
-    </row>
-    <row r="10365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10365" s="1"/>
-    </row>
-    <row r="10366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10366" s="1"/>
-    </row>
-    <row r="10367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10367" s="1"/>
-    </row>
-    <row r="10368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10368" s="1"/>
-    </row>
-    <row r="10369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10369" s="1"/>
-    </row>
-    <row r="10370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10370" s="1"/>
-    </row>
-    <row r="10371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10371" s="1"/>
-    </row>
-    <row r="10372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10372" s="1"/>
-    </row>
-    <row r="10373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10373" s="1"/>
-    </row>
-    <row r="10374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10374" s="1"/>
-    </row>
-    <row r="10375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10375" s="1"/>
-    </row>
-    <row r="10376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10376" s="1"/>
-    </row>
-    <row r="10377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10377" s="1"/>
-    </row>
-    <row r="10378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10378" s="1"/>
-    </row>
-    <row r="10379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10379" s="1"/>
-    </row>
-    <row r="10380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10380" s="1"/>
-    </row>
-    <row r="10381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10381" s="1"/>
-    </row>
-    <row r="10382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10382" s="1"/>
-    </row>
-    <row r="10383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10383" s="1"/>
-    </row>
-    <row r="10384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10384" s="1"/>
-    </row>
-    <row r="10385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10385" s="1"/>
-    </row>
-    <row r="10386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10386" s="1"/>
-    </row>
-    <row r="10387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10387" s="1"/>
-    </row>
-    <row r="10388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10388" s="1"/>
-    </row>
-    <row r="10389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10389" s="1"/>
-    </row>
-    <row r="10390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10390" s="1"/>
-    </row>
-    <row r="10391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10391" s="1"/>
-    </row>
-    <row r="10392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10392" s="1"/>
-    </row>
-    <row r="10393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10393" s="1"/>
-    </row>
-    <row r="10394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10394" s="1"/>
-    </row>
-    <row r="10395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10395" s="1"/>
-    </row>
-    <row r="10396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10396" s="1"/>
-    </row>
-    <row r="10397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10397" s="1"/>
-    </row>
-    <row r="10398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10398" s="1"/>
-    </row>
-    <row r="10399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10399" s="1"/>
-    </row>
-    <row r="10400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10400" s="1"/>
-    </row>
-    <row r="10401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10401" s="1"/>
-    </row>
-    <row r="10402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10402" s="1"/>
-    </row>
-    <row r="10403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10403" s="1"/>
-    </row>
-    <row r="10404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10404" s="1"/>
-    </row>
-    <row r="10405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10405" s="1"/>
-    </row>
-    <row r="10406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10406" s="1"/>
-    </row>
-    <row r="10407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10407" s="1"/>
-    </row>
-    <row r="10408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10408" s="1"/>
-    </row>
-    <row r="10409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10409" s="1"/>
-    </row>
-    <row r="10410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10410" s="1"/>
-    </row>
-    <row r="10411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10411" s="1"/>
-    </row>
-    <row r="10412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10412" s="1"/>
-    </row>
-    <row r="10413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10413" s="1"/>
-    </row>
-    <row r="10414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10414" s="1"/>
-    </row>
-    <row r="10415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10415" s="1"/>
-    </row>
-    <row r="10416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10416" s="1"/>
-    </row>
-    <row r="10417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10417" s="1"/>
-    </row>
-    <row r="10418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10418" s="1"/>
-    </row>
-    <row r="10419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10419" s="1"/>
-    </row>
-    <row r="10420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10420" s="1"/>
-    </row>
-    <row r="10421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10421" s="1"/>
-    </row>
-    <row r="10422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10422" s="1"/>
-    </row>
-    <row r="10423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10423" s="1"/>
-    </row>
-    <row r="10424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10424" s="1"/>
-    </row>
-    <row r="10425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10425" s="1"/>
-    </row>
-    <row r="10426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10426" s="1"/>
-    </row>
-    <row r="10427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10427" s="1"/>
-    </row>
-    <row r="10428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10428" s="1"/>
-    </row>
-    <row r="10429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10429" s="1"/>
-    </row>
-    <row r="10430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10430" s="1"/>
-    </row>
-    <row r="10431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10431" s="1"/>
-    </row>
-    <row r="10432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10432" s="1"/>
-    </row>
-    <row r="10433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10433" s="1"/>
-    </row>
-    <row r="10434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10434" s="1"/>
-    </row>
-    <row r="10435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10435" s="1"/>
-    </row>
-    <row r="10436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10436" s="1"/>
-    </row>
-    <row r="10437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10437" s="1"/>
-    </row>
-    <row r="10438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10438" s="1"/>
-    </row>
-    <row r="10439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10439" s="1"/>
-    </row>
-    <row r="10440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10440" s="1"/>
-    </row>
-    <row r="10441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10441" s="1"/>
-    </row>
-    <row r="10442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10442" s="1"/>
-    </row>
-    <row r="10443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10443" s="1"/>
-    </row>
-    <row r="10444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10444" s="1"/>
-    </row>
-    <row r="10445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10445" s="1"/>
-    </row>
-    <row r="10446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10446" s="1"/>
-    </row>
-    <row r="10447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10447" s="1"/>
-    </row>
-    <row r="10448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10448" s="1"/>
-    </row>
-    <row r="10449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10449" s="1"/>
-    </row>
-    <row r="10450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10450" s="1"/>
-    </row>
-    <row r="10451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10451" s="1"/>
-    </row>
-    <row r="10452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10452" s="1"/>
-    </row>
-    <row r="10453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10453" s="1"/>
-    </row>
-    <row r="10454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10454" s="1"/>
-    </row>
-    <row r="10455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10455" s="1"/>
-    </row>
-    <row r="10456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10456" s="1"/>
-    </row>
-    <row r="10457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10457" s="1"/>
-    </row>
-    <row r="10458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10458" s="1"/>
-    </row>
-    <row r="10459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10459" s="1"/>
-    </row>
-    <row r="10460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10460" s="1"/>
-    </row>
-    <row r="10461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10461" s="1"/>
-    </row>
-    <row r="10462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10462" s="1"/>
-    </row>
-    <row r="10463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10463" s="1"/>
-    </row>
-    <row r="10464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10464" s="1"/>
-    </row>
-    <row r="10465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10465" s="1"/>
-    </row>
-    <row r="10466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10466" s="1"/>
-    </row>
-    <row r="10467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10467" s="1"/>
-    </row>
-    <row r="10468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10468" s="1"/>
-    </row>
-    <row r="10469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10469" s="1"/>
-    </row>
-    <row r="10470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10470" s="1"/>
-    </row>
-    <row r="10471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10471" s="1"/>
-    </row>
-    <row r="10472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10472" s="1"/>
-    </row>
-    <row r="10473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10473" s="1"/>
-    </row>
-    <row r="10474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10474" s="1"/>
-    </row>
-    <row r="10475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10475" s="1"/>
-    </row>
-    <row r="10476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10476" s="1"/>
-    </row>
-    <row r="10477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10477" s="1"/>
-    </row>
-    <row r="10478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10478" s="1"/>
-    </row>
-    <row r="10479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10479" s="1"/>
-    </row>
-    <row r="10480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10480" s="1"/>
-    </row>
-    <row r="10481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10481" s="1"/>
-    </row>
-    <row r="10482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10482" s="1"/>
-    </row>
-    <row r="10483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10483" s="1"/>
-    </row>
-    <row r="10484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10484" s="1"/>
-    </row>
-    <row r="10485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10485" s="1"/>
-    </row>
-    <row r="10486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10486" s="1"/>
-    </row>
-    <row r="10487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10487" s="1"/>
-    </row>
-    <row r="10488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10488" s="1"/>
-    </row>
-    <row r="10489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10489" s="1"/>
-    </row>
-    <row r="10490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10490" s="1"/>
-    </row>
-    <row r="10491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10491" s="1"/>
-    </row>
-    <row r="10492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10492" s="1"/>
-    </row>
-    <row r="10493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10493" s="1"/>
-    </row>
-    <row r="10494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10494" s="1"/>
-    </row>
-    <row r="10495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10495" s="1"/>
-    </row>
-    <row r="10496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10496" s="1"/>
-    </row>
-    <row r="10497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10497" s="1"/>
-    </row>
-    <row r="10498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10498" s="1"/>
-    </row>
-    <row r="10499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10499" s="1"/>
-    </row>
-    <row r="10500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10500" s="1"/>
-    </row>
-    <row r="10501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10501" s="1"/>
-    </row>
-    <row r="10502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10502" s="1"/>
-    </row>
-    <row r="10503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10503" s="1"/>
-    </row>
-    <row r="10504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10504" s="1"/>
-    </row>
-    <row r="10505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10505" s="1"/>
-    </row>
-    <row r="10506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10506" s="1"/>
-    </row>
-    <row r="10507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10507" s="1"/>
-    </row>
-    <row r="10508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10508" s="1"/>
-    </row>
-    <row r="10509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10509" s="1"/>
-    </row>
-    <row r="10510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10510" s="1"/>
-    </row>
-    <row r="10511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10511" s="1"/>
-    </row>
-    <row r="10512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10512" s="1"/>
-    </row>
-    <row r="10513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10513" s="1"/>
-    </row>
-    <row r="10514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10514" s="1"/>
-    </row>
-    <row r="10515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10515" s="1"/>
-    </row>
-    <row r="10516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10516" s="1"/>
-    </row>
-    <row r="10517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10517" s="1"/>
-    </row>
-    <row r="10518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10518" s="1"/>
-    </row>
-    <row r="10519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10519" s="1"/>
-    </row>
-    <row r="10520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10520" s="1"/>
-    </row>
-    <row r="10521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10521" s="1"/>
-    </row>
-    <row r="10522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10522" s="1"/>
-    </row>
-    <row r="10523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10523" s="1"/>
-    </row>
-    <row r="10524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10524" s="1"/>
-    </row>
-    <row r="10525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10525" s="1"/>
-    </row>
-    <row r="10526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10526" s="1"/>
-    </row>
-    <row r="10527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10527" s="1"/>
-    </row>
-    <row r="10528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10528" s="1"/>
-    </row>
-    <row r="10529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10529" s="1"/>
-    </row>
-    <row r="10530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10530" s="1"/>
-    </row>
-    <row r="10531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10531" s="1"/>
-    </row>
-    <row r="10532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10532" s="1"/>
-    </row>
-    <row r="10533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10533" s="1"/>
-    </row>
-    <row r="10534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10534" s="1"/>
-    </row>
-    <row r="10535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10535" s="1"/>
-    </row>
-    <row r="10536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10536" s="1"/>
-    </row>
-    <row r="10537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10537" s="1"/>
-    </row>
-    <row r="10538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10538" s="1"/>
-    </row>
-    <row r="10539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10539" s="1"/>
-    </row>
-    <row r="10540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10540" s="1"/>
-    </row>
-    <row r="10541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10541" s="1"/>
-    </row>
-    <row r="10542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10542" s="1"/>
-    </row>
-    <row r="10543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10543" s="1"/>
-    </row>
-    <row r="10544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10544" s="1"/>
-    </row>
-    <row r="10545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10545" s="1"/>
-    </row>
-    <row r="10546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10546" s="1"/>
-    </row>
-    <row r="10547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10547" s="1"/>
-    </row>
-    <row r="10548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10548" s="1"/>
-    </row>
-    <row r="10549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10549" s="1"/>
-    </row>
-    <row r="10550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10550" s="1"/>
-    </row>
-    <row r="10551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10551" s="1"/>
-    </row>
-    <row r="10552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10552" s="1"/>
-    </row>
-    <row r="10553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10553" s="1"/>
-    </row>
-    <row r="10554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10554" s="1"/>
-    </row>
-    <row r="10555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10555" s="1"/>
-    </row>
-    <row r="10556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10556" s="1"/>
-    </row>
-    <row r="10557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10557" s="1"/>
-    </row>
-    <row r="10558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10558" s="1"/>
-    </row>
-    <row r="10559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10559" s="1"/>
-    </row>
-    <row r="10560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10560" s="1"/>
-    </row>
-    <row r="10561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10561" s="1"/>
-    </row>
-    <row r="10562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10562" s="1"/>
-    </row>
-    <row r="10563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10563" s="1"/>
-    </row>
-    <row r="10564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10564" s="1"/>
-    </row>
-    <row r="10565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10565" s="1"/>
-    </row>
-    <row r="10566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10566" s="1"/>
-    </row>
-    <row r="10567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10567" s="1"/>
-    </row>
-    <row r="10568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10568" s="1"/>
-    </row>
-    <row r="10569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10569" s="1"/>
-    </row>
-    <row r="10570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10570" s="1"/>
-    </row>
-    <row r="10571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10571" s="1"/>
-    </row>
-    <row r="10572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10572" s="1"/>
-    </row>
-    <row r="10573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10573" s="1"/>
-    </row>
-    <row r="10574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10574" s="1"/>
-    </row>
-    <row r="10575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10575" s="1"/>
-    </row>
-    <row r="10576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10576" s="1"/>
-    </row>
-    <row r="10577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10577" s="1"/>
-    </row>
-    <row r="10578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10578" s="1"/>
-    </row>
-    <row r="10579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10579" s="1"/>
-    </row>
-    <row r="10580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10580" s="1"/>
-    </row>
-    <row r="10581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10581" s="1"/>
-    </row>
-    <row r="10582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10582" s="1"/>
-    </row>
-    <row r="10583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10583" s="1"/>
-    </row>
-    <row r="10584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10584" s="1"/>
-    </row>
-    <row r="10585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10585" s="1"/>
-    </row>
-    <row r="10586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10586" s="1"/>
-    </row>
-    <row r="10587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10587" s="1"/>
-    </row>
-    <row r="10588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10588" s="1"/>
-    </row>
-    <row r="10589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10589" s="1"/>
-    </row>
-    <row r="10590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10590" s="1"/>
-    </row>
-    <row r="10591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10591" s="1"/>
-    </row>
-    <row r="10592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10592" s="1"/>
-    </row>
-    <row r="10593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10593" s="1"/>
-    </row>
-    <row r="10594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10594" s="1"/>
-    </row>
-    <row r="10595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10595" s="1"/>
-    </row>
-    <row r="10596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10596" s="1"/>
-    </row>
-    <row r="10597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10597" s="1"/>
-    </row>
-    <row r="10598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10598" s="1"/>
-    </row>
-    <row r="10599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10599" s="1"/>
-    </row>
-    <row r="10600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10600" s="1"/>
-    </row>
-    <row r="10601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10601" s="1"/>
-    </row>
-    <row r="10602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10602" s="1"/>
-    </row>
-    <row r="10603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10603" s="1"/>
-    </row>
-    <row r="10604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10604" s="1"/>
-    </row>
-    <row r="10605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10605" s="1"/>
-    </row>
-    <row r="10606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10606" s="1"/>
-    </row>
-    <row r="10607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10607" s="1"/>
-    </row>
-    <row r="10608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10608" s="1"/>
-    </row>
-    <row r="10609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10609" s="1"/>
-    </row>
-    <row r="10610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10610" s="1"/>
-    </row>
-    <row r="10611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10611" s="1"/>
-    </row>
-    <row r="10612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10612" s="1"/>
-    </row>
-    <row r="10613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10613" s="1"/>
-    </row>
-    <row r="10614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10614" s="1"/>
-    </row>
-    <row r="10615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10615" s="1"/>
-    </row>
-    <row r="10616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10616" s="1"/>
-    </row>
-    <row r="10617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10617" s="1"/>
-    </row>
-    <row r="10618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10618" s="1"/>
-    </row>
-    <row r="10619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10619" s="1"/>
-    </row>
-    <row r="10620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10620" s="1"/>
-    </row>
-    <row r="10621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10621" s="1"/>
-    </row>
-    <row r="10622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10622" s="1"/>
-    </row>
-    <row r="10623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10623" s="1"/>
-    </row>
-    <row r="10624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10624" s="1"/>
-    </row>
-    <row r="10625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10625" s="1"/>
-    </row>
-    <row r="10626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10626" s="1"/>
-    </row>
-    <row r="10627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10627" s="1"/>
-    </row>
-    <row r="10628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10628" s="1"/>
-    </row>
-    <row r="10629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10629" s="1"/>
-    </row>
-    <row r="10630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10630" s="1"/>
-    </row>
-    <row r="10631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10631" s="1"/>
-    </row>
-    <row r="10632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10632" s="1"/>
-    </row>
-    <row r="10633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10633" s="1"/>
-    </row>
-    <row r="10634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10634" s="1"/>
-    </row>
-    <row r="10635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10635" s="1"/>
-    </row>
-    <row r="10636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10636" s="1"/>
-    </row>
-    <row r="10637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10637" s="1"/>
-    </row>
-    <row r="10638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10638" s="1"/>
-    </row>
-    <row r="10639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10639" s="1"/>
-    </row>
-    <row r="10640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10640" s="1"/>
-    </row>
-    <row r="10641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10641" s="1"/>
-    </row>
-    <row r="10642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10642" s="1"/>
-    </row>
-    <row r="10643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10643" s="1"/>
-    </row>
-    <row r="10644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10644" s="1"/>
-    </row>
-    <row r="10645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10645" s="1"/>
-    </row>
-    <row r="10646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10646" s="1"/>
-    </row>
-    <row r="10647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10647" s="1"/>
-    </row>
-    <row r="10648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10648" s="1"/>
-    </row>
-    <row r="10649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10649" s="1"/>
-    </row>
-    <row r="10650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10650" s="1"/>
-    </row>
-    <row r="10651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10651" s="1"/>
-    </row>
-    <row r="10652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10652" s="1"/>
-    </row>
-    <row r="10653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10653" s="1"/>
-    </row>
-    <row r="10654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10654" s="1"/>
-    </row>
-    <row r="10655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10655" s="1"/>
-    </row>
-    <row r="10656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10656" s="1"/>
-    </row>
-    <row r="10657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10657" s="1"/>
-    </row>
-    <row r="10658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10658" s="1"/>
-    </row>
-    <row r="10659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10659" s="1"/>
-    </row>
-    <row r="10660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10660" s="1"/>
-    </row>
-    <row r="10661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10661" s="1"/>
-    </row>
-    <row r="10662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10662" s="1"/>
-    </row>
-    <row r="10663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10663" s="1"/>
-    </row>
-    <row r="10664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10664" s="1"/>
-    </row>
-    <row r="10665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10665" s="1"/>
-    </row>
-    <row r="10666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10666" s="1"/>
-    </row>
-    <row r="10667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10667" s="1"/>
-    </row>
-    <row r="10668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10668" s="1"/>
-    </row>
-    <row r="10669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10669" s="1"/>
-    </row>
-    <row r="10670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10670" s="1"/>
-    </row>
-    <row r="10671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10671" s="1"/>
-    </row>
-    <row r="10672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10672" s="1"/>
-    </row>
-    <row r="10673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10673" s="1"/>
-    </row>
-    <row r="10674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10674" s="1"/>
-    </row>
-    <row r="10675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10675" s="1"/>
-    </row>
-    <row r="10676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10676" s="1"/>
-    </row>
-    <row r="10677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10677" s="1"/>
-    </row>
-    <row r="10678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10678" s="1"/>
-    </row>
-    <row r="10679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10679" s="1"/>
-    </row>
-    <row r="10680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10680" s="1"/>
-    </row>
-    <row r="10681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10681" s="1"/>
-    </row>
-    <row r="10682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10682" s="1"/>
-    </row>
-    <row r="10683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10683" s="1"/>
-    </row>
-    <row r="10684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10684" s="1"/>
-    </row>
-    <row r="10685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10685" s="1"/>
-    </row>
-    <row r="10686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10686" s="1"/>
-    </row>
-    <row r="10687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10687" s="1"/>
-    </row>
-    <row r="10688" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10688" s="1"/>
-    </row>
-    <row r="10689" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10689" s="1"/>
-    </row>
-    <row r="10690" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10690" s="1"/>
-    </row>
-    <row r="10691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10691" s="1"/>
-    </row>
-    <row r="10692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10692" s="1"/>
-    </row>
-    <row r="10693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10693" s="1"/>
-    </row>
-    <row r="10694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10694" s="1"/>
-    </row>
-    <row r="10695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10695" s="1"/>
-    </row>
-    <row r="10696" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10696" s="1"/>
-    </row>
-    <row r="10697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10697" s="1"/>
-    </row>
-    <row r="10698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10698" s="1"/>
-    </row>
-    <row r="10699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10699" s="1"/>
-    </row>
-    <row r="10700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10700" s="1"/>
-    </row>
-    <row r="10701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10701" s="1"/>
-    </row>
-    <row r="10702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10702" s="1"/>
-    </row>
-    <row r="10703" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10703" s="1"/>
-    </row>
-    <row r="10704" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10704" s="1"/>
-    </row>
-    <row r="10705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10705" s="1"/>
-    </row>
-    <row r="10706" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10706" s="1"/>
-    </row>
-    <row r="10707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10707" s="1"/>
-    </row>
-    <row r="10708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10708" s="1"/>
-    </row>
-    <row r="10709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10709" s="1"/>
-    </row>
-    <row r="10710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10710" s="1"/>
-    </row>
-    <row r="10711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10711" s="1"/>
-    </row>
-    <row r="10712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10712" s="1"/>
-    </row>
-    <row r="10713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10713" s="1"/>
-    </row>
-    <row r="10714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10714" s="1"/>
-    </row>
-    <row r="10715" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10715" s="1"/>
-    </row>
-    <row r="10716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10716" s="1"/>
-    </row>
-    <row r="10717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10717" s="1"/>
-    </row>
-    <row r="10718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10718" s="1"/>
-    </row>
-    <row r="10719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10719" s="1"/>
-    </row>
-    <row r="10720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10720" s="1"/>
-    </row>
-    <row r="10721" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10721" s="1"/>
-    </row>
-    <row r="10722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10722" s="1"/>
-    </row>
-    <row r="10723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10723" s="1"/>
-    </row>
-    <row r="10724" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10724" s="1"/>
-    </row>
-    <row r="10725" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10725" s="1"/>
-    </row>
-    <row r="10726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10726" s="1"/>
-    </row>
-    <row r="10727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10727" s="1"/>
-    </row>
-    <row r="10728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10728" s="1"/>
-    </row>
-    <row r="10729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10729" s="1"/>
-    </row>
-    <row r="10730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10730" s="1"/>
-    </row>
-    <row r="10731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10731" s="1"/>
-    </row>
-    <row r="10732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10732" s="1"/>
-    </row>
-    <row r="10733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10733" s="1"/>
-    </row>
-    <row r="10734" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10734" s="1"/>
-    </row>
-    <row r="10735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10735" s="1"/>
-    </row>
-    <row r="10736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10736" s="1"/>
-    </row>
-    <row r="10737" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10737" s="1"/>
-    </row>
-    <row r="10738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10738" s="1"/>
-    </row>
-    <row r="10739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10739" s="1"/>
-    </row>
-    <row r="10740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10740" s="1"/>
-    </row>
-    <row r="10741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10741" s="1"/>
-    </row>
-    <row r="10742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10742" s="1"/>
-    </row>
-    <row r="10743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10743" s="1"/>
-    </row>
-    <row r="10744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10744" s="1"/>
-    </row>
-    <row r="10745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10745" s="1"/>
-    </row>
-    <row r="10746" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10746" s="1"/>
-    </row>
-    <row r="10747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10747" s="1"/>
-    </row>
-    <row r="10748" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10748" s="1"/>
-    </row>
-    <row r="10749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10749" s="1"/>
-    </row>
-    <row r="10750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10750" s="1"/>
-    </row>
-    <row r="10751" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10751" s="1"/>
-    </row>
-    <row r="10752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10752" s="1"/>
-    </row>
-    <row r="10753" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10753" s="1"/>
-    </row>
-    <row r="10754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10754" s="1"/>
-    </row>
-    <row r="10755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10755" s="1"/>
-    </row>
-    <row r="10756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10756" s="1"/>
-    </row>
-    <row r="10757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10757" s="1"/>
-    </row>
-    <row r="10758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10758" s="1"/>
-    </row>
-    <row r="10759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10759" s="1"/>
-    </row>
-    <row r="10760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10760" s="1"/>
-    </row>
-    <row r="10761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10761" s="1"/>
-    </row>
-    <row r="10762" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10762" s="1"/>
-    </row>
-    <row r="10763" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10763" s="1"/>
-    </row>
-    <row r="10764" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10764" s="1"/>
-    </row>
-    <row r="10765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10765" s="1"/>
-    </row>
-    <row r="10766" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10766" s="1"/>
-    </row>
-    <row r="10767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10767" s="1"/>
-    </row>
-    <row r="10768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10768" s="1"/>
-    </row>
-    <row r="10769" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10769" s="1"/>
-    </row>
-    <row r="10770" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10770" s="1"/>
-    </row>
-    <row r="10771" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10771" s="1"/>
-    </row>
-    <row r="10772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10772" s="1"/>
-    </row>
-    <row r="10773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10773" s="1"/>
-    </row>
-    <row r="10774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10774" s="1"/>
-    </row>
-    <row r="10775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10775" s="1"/>
-    </row>
-    <row r="10776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10776" s="1"/>
-    </row>
-    <row r="10777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10777" s="1"/>
-    </row>
-    <row r="10778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10778" s="1"/>
-    </row>
-    <row r="10779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10779" s="1"/>
-    </row>
-    <row r="10780" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10780" s="1"/>
-    </row>
-    <row r="10781" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10781" s="1"/>
-    </row>
-    <row r="10782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10782" s="1"/>
-    </row>
-    <row r="10783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10783" s="1"/>
-    </row>
-    <row r="10784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10784" s="1"/>
-    </row>
-    <row r="10785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10785" s="1"/>
-    </row>
-    <row r="10786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10786" s="1"/>
-    </row>
-    <row r="10787" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10787" s="1"/>
-    </row>
-    <row r="10788" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10788" s="1"/>
-    </row>
-    <row r="10789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10789" s="1"/>
-    </row>
-    <row r="10790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10790" s="1"/>
-    </row>
-    <row r="10791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10791" s="1"/>
-    </row>
-    <row r="10792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10792" s="1"/>
-    </row>
-    <row r="10793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10793" s="1"/>
-    </row>
-    <row r="10794" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10794" s="1"/>
-    </row>
-    <row r="10795" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10795" s="1"/>
-    </row>
-    <row r="10796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10796" s="1"/>
-    </row>
-    <row r="10797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10797" s="1"/>
-    </row>
-    <row r="10798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10798" s="1"/>
-    </row>
-    <row r="10799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10799" s="1"/>
-    </row>
-    <row r="10800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10800" s="1"/>
-    </row>
-    <row r="10801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10801" s="1"/>
-    </row>
-    <row r="10802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10802" s="1"/>
-    </row>
-    <row r="10803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10803" s="1"/>
-    </row>
-    <row r="10804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10804" s="1"/>
-    </row>
-    <row r="10805" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10805" s="1"/>
-    </row>
-    <row r="10806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10806" s="1"/>
-    </row>
-    <row r="10807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10807" s="1"/>
-    </row>
-    <row r="10808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10808" s="1"/>
-    </row>
-    <row r="10809" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10809" s="1"/>
-    </row>
-    <row r="10810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10810" s="1"/>
-    </row>
-    <row r="10811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10811" s="1"/>
-    </row>
-    <row r="10812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10812" s="1"/>
-    </row>
-    <row r="10813" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10813" s="1"/>
-    </row>
-    <row r="10814" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10814" s="1"/>
-    </row>
-    <row r="10815" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10815" s="1"/>
-    </row>
-    <row r="10816" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10816" s="1"/>
-    </row>
-    <row r="10817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10817" s="1"/>
-    </row>
-    <row r="10818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10818" s="1"/>
-    </row>
-    <row r="10819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10819" s="1"/>
-    </row>
-    <row r="10820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10820" s="1"/>
-    </row>
-    <row r="10821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10821" s="1"/>
-    </row>
-    <row r="10822" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10822" s="1"/>
-    </row>
-    <row r="10823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10823" s="1"/>
-    </row>
-    <row r="10824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10824" s="1"/>
-    </row>
-    <row r="10825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10825" s="1"/>
-    </row>
-    <row r="10826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10826" s="1"/>
-    </row>
-    <row r="10827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10827" s="1"/>
-    </row>
-    <row r="10828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10828" s="1"/>
-    </row>
-    <row r="10829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10829" s="1"/>
-    </row>
-    <row r="10830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10830" s="1"/>
-    </row>
-    <row r="10831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10831" s="1"/>
-    </row>
-    <row r="10832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10832" s="1"/>
-    </row>
-    <row r="10833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10833" s="1"/>
-    </row>
-    <row r="10834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10834" s="1"/>
-    </row>
-    <row r="10835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10835" s="1"/>
-    </row>
-    <row r="10836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10836" s="1"/>
-    </row>
-    <row r="10837" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10837" s="1"/>
-    </row>
-    <row r="10838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10838" s="1"/>
-    </row>
-    <row r="10839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10839" s="1"/>
-    </row>
-    <row r="10840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10840" s="1"/>
-    </row>
-    <row r="10841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10841" s="1"/>
-    </row>
-    <row r="10842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10842" s="1"/>
-    </row>
-    <row r="10843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10843" s="1"/>
-    </row>
-    <row r="10844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10844" s="1"/>
-    </row>
-    <row r="10845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10845" s="1"/>
-    </row>
-    <row r="10846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10846" s="1"/>
-    </row>
-    <row r="10847" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10847" s="1"/>
-    </row>
-    <row r="10848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10848" s="1"/>
-    </row>
-    <row r="10849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10849" s="1"/>
-    </row>
-    <row r="10850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10850" s="1"/>
-    </row>
-    <row r="10851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10851" s="1"/>
-    </row>
-    <row r="10852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10852" s="1"/>
-    </row>
-    <row r="10853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10853" s="1"/>
-    </row>
-    <row r="10854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10854" s="1"/>
-    </row>
-    <row r="10855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10855" s="1"/>
-    </row>
-    <row r="10856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10856" s="1"/>
-    </row>
-    <row r="10857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10857" s="1"/>
-    </row>
-    <row r="10858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10858" s="1"/>
-    </row>
-    <row r="10859" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10859" s="1"/>
-    </row>
-    <row r="10860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10860" s="1"/>
-    </row>
-    <row r="10861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10861" s="1"/>
-    </row>
-    <row r="10862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10862" s="1"/>
-    </row>
-    <row r="10863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10863" s="1"/>
-    </row>
-    <row r="10864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10864" s="1"/>
-    </row>
-    <row r="10865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10865" s="1"/>
-    </row>
-    <row r="10866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10866" s="1"/>
-    </row>
-    <row r="10867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10867" s="1"/>
-    </row>
-    <row r="10868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10868" s="1"/>
-    </row>
-    <row r="10869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10869" s="1"/>
-    </row>
-    <row r="10870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10870" s="1"/>
-    </row>
-    <row r="10871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10871" s="1"/>
-    </row>
-    <row r="10872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10872" s="1"/>
-    </row>
-    <row r="10873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10873" s="1"/>
-    </row>
-    <row r="10874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10874" s="1"/>
-    </row>
-    <row r="10875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10875" s="1"/>
-    </row>
-    <row r="10876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10876" s="1"/>
-    </row>
-    <row r="10877" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10877" s="1"/>
-    </row>
-    <row r="10878" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10878" s="1"/>
-    </row>
-    <row r="10879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10879" s="1"/>
-    </row>
-    <row r="10880" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10880" s="1"/>
-    </row>
-    <row r="10881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10881" s="1"/>
-    </row>
-    <row r="10882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10882" s="1"/>
-    </row>
-    <row r="10883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10883" s="1"/>
-    </row>
-    <row r="10884" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10884" s="1"/>
-    </row>
-    <row r="10885" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10885" s="1"/>
-    </row>
-    <row r="10886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10886" s="1"/>
-    </row>
-    <row r="10887" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10887" s="1"/>
-    </row>
-    <row r="10888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10888" s="1"/>
-    </row>
-    <row r="10889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10889" s="1"/>
-    </row>
-    <row r="10890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10890" s="1"/>
-    </row>
-    <row r="10891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10891" s="1"/>
-    </row>
-    <row r="10892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10892" s="1"/>
-    </row>
-    <row r="10893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10893" s="1"/>
-    </row>
-    <row r="10894" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10894" s="1"/>
-    </row>
-    <row r="10895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10895" s="1"/>
-    </row>
-    <row r="10896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10896" s="1"/>
-    </row>
-    <row r="10897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10897" s="1"/>
-    </row>
-    <row r="10898" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10898" s="1"/>
-    </row>
-    <row r="10899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10899" s="1"/>
-    </row>
-    <row r="10900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10900" s="1"/>
-    </row>
-    <row r="10901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10901" s="1"/>
-    </row>
-    <row r="10902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10902" s="1"/>
-    </row>
-    <row r="10903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10903" s="1"/>
-    </row>
-    <row r="10904" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10904" s="1"/>
-    </row>
-    <row r="10905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10905" s="1"/>
-    </row>
-    <row r="10906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10906" s="1"/>
-    </row>
-    <row r="10907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10907" s="1"/>
-    </row>
-    <row r="10908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10908" s="1"/>
-    </row>
-    <row r="10909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10909" s="1"/>
-    </row>
-    <row r="10910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10910" s="1"/>
-    </row>
-    <row r="10911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10911" s="1"/>
-    </row>
-    <row r="10912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10912" s="1"/>
-    </row>
-    <row r="10913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10913" s="1"/>
-    </row>
-    <row r="10914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10914" s="1"/>
-    </row>
-    <row r="10915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10915" s="1"/>
-    </row>
-    <row r="10916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10916" s="1"/>
-    </row>
-    <row r="10917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10917" s="1"/>
-    </row>
-    <row r="10918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10918" s="1"/>
-    </row>
-    <row r="10919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10919" s="1"/>
-    </row>
-    <row r="10920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10920" s="1"/>
-    </row>
-    <row r="10921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10921" s="1"/>
-    </row>
-    <row r="10922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10922" s="1"/>
-    </row>
-    <row r="10923" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10923" s="1"/>
-    </row>
-    <row r="10924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10924" s="1"/>
-    </row>
-    <row r="10925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10925" s="1"/>
-    </row>
-    <row r="10926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10926" s="1"/>
-    </row>
-    <row r="10927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10927" s="1"/>
-    </row>
-    <row r="10928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10928" s="1"/>
-    </row>
-    <row r="10929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10929" s="1"/>
-    </row>
-    <row r="10930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10930" s="1"/>
-    </row>
-    <row r="10931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10931" s="1"/>
-    </row>
-    <row r="10932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10932" s="1"/>
-    </row>
-    <row r="10933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10933" s="1"/>
-    </row>
-    <row r="10934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10934" s="1"/>
-    </row>
-    <row r="10935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10935" s="1"/>
-    </row>
-    <row r="10936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10936" s="1"/>
-    </row>
-    <row r="10937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10937" s="1"/>
-    </row>
-    <row r="10938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10938" s="1"/>
-    </row>
-    <row r="10939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10939" s="1"/>
-    </row>
-    <row r="10940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10940" s="1"/>
-    </row>
-    <row r="10941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10941" s="1"/>
-    </row>
-    <row r="10942" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10942" s="1"/>
-    </row>
-    <row r="10943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10943" s="1"/>
-    </row>
-    <row r="10944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10944" s="1"/>
-    </row>
-    <row r="10945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10945" s="1"/>
-    </row>
-    <row r="10946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10946" s="1"/>
-    </row>
-    <row r="10947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10947" s="1"/>
-    </row>
-    <row r="10948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10948" s="1"/>
-    </row>
-    <row r="10949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10949" s="1"/>
-    </row>
-    <row r="10950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10950" s="1"/>
-    </row>
-    <row r="10951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10951" s="1"/>
-    </row>
-    <row r="10952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10952" s="1"/>
-    </row>
-    <row r="10953" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10953" s="1"/>
-    </row>
-    <row r="10954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10954" s="1"/>
-    </row>
-    <row r="10955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10955" s="1"/>
-    </row>
-    <row r="10956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10956" s="1"/>
-    </row>
-    <row r="10957" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10957" s="1"/>
-    </row>
-    <row r="10958" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10958" s="1"/>
-    </row>
-    <row r="10959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10959" s="1"/>
-    </row>
-    <row r="10960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10960" s="1"/>
-    </row>
-    <row r="10961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10961" s="1"/>
-    </row>
-    <row r="10962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10962" s="1"/>
-    </row>
-    <row r="10963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10963" s="1"/>
-    </row>
-    <row r="10964" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10964" s="1"/>
-    </row>
-    <row r="10965" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10965" s="1"/>
-    </row>
-    <row r="10966" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10966" s="1"/>
-    </row>
-    <row r="10967" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10967" s="1"/>
-    </row>
-    <row r="10968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10968" s="1"/>
-    </row>
-    <row r="10969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10969" s="1"/>
-    </row>
-    <row r="10970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10970" s="1"/>
-    </row>
-    <row r="10971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10971" s="1"/>
-    </row>
-    <row r="10972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10972" s="1"/>
-    </row>
-    <row r="10973" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10973" s="1"/>
-    </row>
-    <row r="10974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10974" s="1"/>
-    </row>
-    <row r="10975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10975" s="1"/>
-    </row>
-    <row r="10976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10976" s="1"/>
-    </row>
-    <row r="10977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10977" s="1"/>
-    </row>
-    <row r="10978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10978" s="1"/>
-    </row>
-    <row r="10979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10979" s="1"/>
-    </row>
-    <row r="10980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10980" s="1"/>
-    </row>
-    <row r="10981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10981" s="1"/>
-    </row>
-    <row r="10982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10982" s="1"/>
-    </row>
-    <row r="10983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10983" s="1"/>
-    </row>
-    <row r="10984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10984" s="1"/>
-    </row>
-    <row r="10985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10985" s="1"/>
-    </row>
-    <row r="10986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10986" s="1"/>
-    </row>
-    <row r="10987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10987" s="1"/>
-    </row>
-    <row r="10988" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10988" s="1"/>
-    </row>
-    <row r="10989" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10989" s="1"/>
-    </row>
-    <row r="10990" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10990" s="1"/>
-    </row>
-    <row r="10991" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10991" s="1"/>
-    </row>
-    <row r="10992" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10992" s="1"/>
-    </row>
-    <row r="10993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10993" s="1"/>
-    </row>
-    <row r="10994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10994" s="1"/>
-    </row>
-    <row r="10995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10995" s="1"/>
-    </row>
-    <row r="10996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10996" s="1"/>
-    </row>
-    <row r="10997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10997" s="1"/>
-    </row>
-    <row r="10998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10998" s="1"/>
-    </row>
-    <row r="10999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10999" s="1"/>
-    </row>
-    <row r="11000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11000" s="1"/>
-    </row>
-    <row r="11001" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11001" s="1"/>
-    </row>
-    <row r="11002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11002" s="1"/>
-    </row>
-    <row r="11003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11003" s="1"/>
-    </row>
-    <row r="11004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11004" s="1"/>
-    </row>
-    <row r="11005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11005" s="1"/>
-    </row>
-    <row r="11006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11006" s="1"/>
-    </row>
-    <row r="11007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11007" s="1"/>
-    </row>
-    <row r="11008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11008" s="1"/>
-    </row>
-    <row r="11009" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11009" s="1"/>
-    </row>
-    <row r="11010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11010" s="1"/>
-    </row>
-    <row r="11011" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11011" s="1"/>
-    </row>
-    <row r="11012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11012" s="1"/>
-    </row>
-    <row r="11013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11013" s="1"/>
-    </row>
-    <row r="11014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11014" s="1"/>
-    </row>
-    <row r="11015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11015" s="1"/>
-    </row>
-    <row r="11016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11016" s="1"/>
-    </row>
-    <row r="11017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11017" s="1"/>
-    </row>
-    <row r="11018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11018" s="1"/>
-    </row>
-    <row r="11019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11019" s="1"/>
-    </row>
-    <row r="11020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11020" s="1"/>
-    </row>
-    <row r="11021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11021" s="1"/>
-    </row>
-    <row r="11022" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11022" s="1"/>
-    </row>
-    <row r="11023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11023" s="1"/>
-    </row>
-    <row r="11024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11024" s="1"/>
-    </row>
-    <row r="11025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11025" s="1"/>
-    </row>
-    <row r="11026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11026" s="1"/>
-    </row>
-    <row r="11027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11027" s="1"/>
-    </row>
-    <row r="11028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11028" s="1"/>
-    </row>
-    <row r="11029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11029" s="1"/>
-    </row>
-    <row r="11030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11030" s="1"/>
-    </row>
-    <row r="11031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11031" s="1"/>
-    </row>
-    <row r="11032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11032" s="1"/>
-    </row>
-    <row r="11033" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11033" s="1"/>
-    </row>
-    <row r="11034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11034" s="1"/>
-    </row>
-    <row r="11035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11035" s="1"/>
-    </row>
-    <row r="11036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11036" s="1"/>
-    </row>
-    <row r="11037" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11037" s="1"/>
-    </row>
-    <row r="11038" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11038" s="1"/>
-    </row>
-    <row r="11039" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11039" s="1"/>
-    </row>
-    <row r="11040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11040" s="1"/>
-    </row>
-    <row r="11041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11041" s="1"/>
-    </row>
-    <row r="11042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11042" s="1"/>
-    </row>
-    <row r="11043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11043" s="1"/>
-    </row>
-    <row r="11044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11044" s="1"/>
-    </row>
-    <row r="11045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11045" s="1"/>
-    </row>
-    <row r="11046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11046" s="1"/>
-    </row>
-    <row r="11047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11047" s="1"/>
-    </row>
-    <row r="11048" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11048" s="1"/>
-    </row>
-    <row r="11049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11049" s="1"/>
-    </row>
-    <row r="11050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11050" s="1"/>
-    </row>
-    <row r="11051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11051" s="1"/>
-    </row>
-    <row r="11052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11052" s="1"/>
-    </row>
-    <row r="11053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11053" s="1"/>
-    </row>
-    <row r="11054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11054" s="1"/>
-    </row>
-    <row r="11055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11055" s="1"/>
-    </row>
-    <row r="11056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11056" s="1"/>
-    </row>
-    <row r="11057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11057" s="1"/>
-    </row>
-    <row r="11058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11058" s="1"/>
-    </row>
-    <row r="11059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11059" s="1"/>
-    </row>
-    <row r="11060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11060" s="1"/>
-    </row>
-    <row r="11061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11061" s="1"/>
-    </row>
-    <row r="11062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11062" s="1"/>
-    </row>
-    <row r="11063" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11063" s="1"/>
-    </row>
-    <row r="11064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11064" s="1"/>
-    </row>
-    <row r="11065" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11065" s="1"/>
-    </row>
-    <row r="11066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11066" s="1"/>
-    </row>
-    <row r="11067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11067" s="1"/>
-    </row>
-    <row r="11068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11068" s="1"/>
-    </row>
-    <row r="11069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11069" s="1"/>
-    </row>
-    <row r="11070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11070" s="1"/>
-    </row>
-    <row r="11071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11071" s="1"/>
-    </row>
-    <row r="11072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11072" s="1"/>
-    </row>
-    <row r="11073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11073" s="1"/>
-    </row>
-    <row r="11074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11074" s="1"/>
-    </row>
-    <row r="11075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11075" s="1"/>
-    </row>
-    <row r="11076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11076" s="1"/>
-    </row>
-    <row r="11077" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11077" s="1"/>
-    </row>
-    <row r="11078" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11078" s="1"/>
-    </row>
-    <row r="11079" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11079" s="1"/>
-    </row>
-    <row r="11080" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11080" s="1"/>
-    </row>
-    <row r="11081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11081" s="1"/>
-    </row>
-    <row r="11082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11082" s="1"/>
-    </row>
-    <row r="11083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11083" s="1"/>
-    </row>
-    <row r="11084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11084" s="1"/>
-    </row>
-    <row r="11085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11085" s="1"/>
-    </row>
-    <row r="11086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11086" s="1"/>
-    </row>
-    <row r="11087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11087" s="1"/>
-    </row>
-    <row r="11088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11088" s="1"/>
-    </row>
-    <row r="11089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11089" s="1"/>
-    </row>
-    <row r="11090" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11090" s="1"/>
-    </row>
-    <row r="11091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11091" s="1"/>
-    </row>
-    <row r="11092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11092" s="1"/>
-    </row>
-    <row r="11093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11093" s="1"/>
-    </row>
-    <row r="11094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11094" s="1"/>
-    </row>
-    <row r="11095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11095" s="1"/>
-    </row>
-    <row r="11096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11096" s="1"/>
-    </row>
-    <row r="11097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11097" s="1"/>
-    </row>
-    <row r="11098" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11098" s="1"/>
-    </row>
-    <row r="11099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11099" s="1"/>
-    </row>
-    <row r="11100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11100" s="1"/>
-    </row>
-    <row r="11101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11101" s="1"/>
-    </row>
-    <row r="11102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11102" s="1"/>
-    </row>
-    <row r="11103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11103" s="1"/>
-    </row>
-    <row r="11104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11104" s="1"/>
-    </row>
-    <row r="11105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11105" s="1"/>
-    </row>
-    <row r="11106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11106" s="1"/>
-    </row>
-    <row r="11107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11107" s="1"/>
-    </row>
-    <row r="11108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11108" s="1"/>
-    </row>
-    <row r="11109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11109" s="1"/>
-    </row>
-    <row r="11110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11110" s="1"/>
-    </row>
-    <row r="11111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11111" s="1"/>
-    </row>
-    <row r="11112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11112" s="1"/>
-    </row>
-    <row r="11113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11113" s="1"/>
-    </row>
-    <row r="11114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11114" s="1"/>
-    </row>
-    <row r="11115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11115" s="1"/>
-    </row>
-    <row r="11116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11116" s="1"/>
-    </row>
-    <row r="11117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11117" s="1"/>
-    </row>
-    <row r="11118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11118" s="1"/>
-    </row>
-    <row r="11119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11119" s="1"/>
-    </row>
-    <row r="11120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11120" s="1"/>
-    </row>
-    <row r="11121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11121" s="1"/>
-    </row>
-    <row r="11122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11122" s="1"/>
-    </row>
-    <row r="11123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11123" s="1"/>
-    </row>
-    <row r="11124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11124" s="1"/>
-    </row>
-    <row r="11125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11125" s="1"/>
-    </row>
-    <row r="11126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11126" s="1"/>
-    </row>
-    <row r="11127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11127" s="1"/>
-    </row>
-    <row r="11128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11128" s="1"/>
-    </row>
-    <row r="11129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11129" s="1"/>
-    </row>
-    <row r="11130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11130" s="1"/>
-    </row>
-    <row r="11131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11131" s="1"/>
-    </row>
-    <row r="11132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11132" s="1"/>
-    </row>
-    <row r="11133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11133" s="1"/>
-    </row>
-    <row r="11134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11134" s="1"/>
-    </row>
-    <row r="11135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11135" s="1"/>
-    </row>
-    <row r="11136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11136" s="1"/>
-    </row>
-    <row r="11137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11137" s="1"/>
-    </row>
-    <row r="11138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11138" s="1"/>
-    </row>
-    <row r="11139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11139" s="1"/>
-    </row>
-    <row r="11140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11140" s="1"/>
-    </row>
-    <row r="11141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11141" s="1"/>
-    </row>
-    <row r="11142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11142" s="1"/>
-    </row>
-    <row r="11143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11143" s="1"/>
-    </row>
-    <row r="11144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11144" s="1"/>
-    </row>
-    <row r="11145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11145" s="1"/>
-    </row>
-    <row r="11146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11146" s="1"/>
-    </row>
-    <row r="11147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11147" s="1"/>
-    </row>
-    <row r="11148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11148" s="1"/>
-    </row>
-    <row r="11149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11149" s="1"/>
-    </row>
-    <row r="11150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11150" s="1"/>
-    </row>
-    <row r="11151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11151" s="1"/>
-    </row>
-    <row r="11152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11152" s="1"/>
-    </row>
-    <row r="11153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11153" s="1"/>
-    </row>
-    <row r="11154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11154" s="1"/>
-    </row>
-    <row r="11155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11155" s="1"/>
-    </row>
-    <row r="11156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11156" s="1"/>
-    </row>
-    <row r="11157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11157" s="1"/>
-    </row>
-    <row r="11158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11158" s="1"/>
-    </row>
-    <row r="11159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11159" s="1"/>
-    </row>
-    <row r="11160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11160" s="1"/>
-    </row>
-    <row r="11161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11161" s="1"/>
-    </row>
-    <row r="11162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11162" s="1"/>
-    </row>
-    <row r="11163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11163" s="1"/>
-    </row>
-    <row r="11164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11164" s="1"/>
-    </row>
-    <row r="11165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11165" s="1"/>
-    </row>
-    <row r="11166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11166" s="1"/>
-    </row>
-    <row r="11167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11167" s="1"/>
-    </row>
-    <row r="11168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11168" s="1"/>
-    </row>
-    <row r="11169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11169" s="1"/>
-    </row>
-    <row r="11170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11170" s="1"/>
-    </row>
-    <row r="11171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11171" s="1"/>
-    </row>
-    <row r="11172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11172" s="1"/>
-    </row>
-    <row r="11173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11173" s="1"/>
-    </row>
-    <row r="11174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11174" s="1"/>
-    </row>
-    <row r="11175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11175" s="1"/>
-    </row>
-    <row r="11176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11176" s="1"/>
-    </row>
-    <row r="11177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11177" s="1"/>
-    </row>
-    <row r="11178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11178" s="1"/>
-    </row>
-    <row r="11179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11179" s="1"/>
-    </row>
-    <row r="11180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11180" s="1"/>
-    </row>
-    <row r="11181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11181" s="1"/>
-    </row>
-    <row r="11182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11182" s="1"/>
-    </row>
-    <row r="11183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11183" s="1"/>
-    </row>
-    <row r="11184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11184" s="1"/>
-    </row>
-    <row r="11185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11185" s="1"/>
-    </row>
-    <row r="11186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11186" s="1"/>
-    </row>
-    <row r="11187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11187" s="1"/>
-    </row>
-    <row r="11188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11188" s="1"/>
-    </row>
-    <row r="11189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11189" s="1"/>
-    </row>
-    <row r="11190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11190" s="1"/>
-    </row>
-    <row r="11191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11191" s="1"/>
-    </row>
-    <row r="11192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11192" s="1"/>
-    </row>
-    <row r="11193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11193" s="1"/>
-    </row>
-    <row r="11194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11194" s="1"/>
-    </row>
-    <row r="11195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11195" s="1"/>
-    </row>
-    <row r="11196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11196" s="1"/>
-    </row>
-    <row r="11197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11197" s="1"/>
-    </row>
-    <row r="11198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11198" s="1"/>
-    </row>
-    <row r="11199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11199" s="1"/>
-    </row>
-    <row r="11200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11200" s="1"/>
-    </row>
-    <row r="11201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11201" s="1"/>
-    </row>
-    <row r="11202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11202" s="1"/>
-    </row>
-    <row r="11203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11203" s="1"/>
-    </row>
-    <row r="11204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11204" s="1"/>
-    </row>
-    <row r="11205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11205" s="1"/>
-    </row>
-    <row r="11206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11206" s="1"/>
-    </row>
-    <row r="11207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11207" s="1"/>
-    </row>
-    <row r="11208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11208" s="1"/>
-    </row>
-    <row r="11209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11209" s="1"/>
-    </row>
-    <row r="11210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11210" s="1"/>
-    </row>
-    <row r="11211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11211" s="1"/>
-    </row>
-    <row r="11212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11212" s="1"/>
-    </row>
-    <row r="11213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11213" s="1"/>
-    </row>
-    <row r="11214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11214" s="1"/>
-    </row>
-    <row r="11215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11215" s="1"/>
-    </row>
-    <row r="11216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11216" s="1"/>
-    </row>
-    <row r="11217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11217" s="1"/>
-    </row>
-    <row r="11218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11218" s="1"/>
-    </row>
-    <row r="11219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11219" s="1"/>
-    </row>
-    <row r="11220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11220" s="1"/>
-    </row>
-    <row r="11221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11221" s="1"/>
-    </row>
-    <row r="11222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11222" s="1"/>
-    </row>
-    <row r="11223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11223" s="1"/>
-    </row>
-    <row r="11224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11224" s="1"/>
-    </row>
-    <row r="11225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11225" s="1"/>
-    </row>
-    <row r="11226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11226" s="1"/>
-    </row>
-    <row r="11227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11227" s="1"/>
-    </row>
-    <row r="11228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11228" s="1"/>
-    </row>
-    <row r="11229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11229" s="1"/>
-    </row>
-    <row r="11230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11230" s="1"/>
-    </row>
-    <row r="11231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11231" s="1"/>
-    </row>
-    <row r="11232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11232" s="1"/>
-    </row>
-    <row r="11233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11233" s="1"/>
-    </row>
-    <row r="11234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11234" s="1"/>
-    </row>
-    <row r="11235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11235" s="1"/>
-    </row>
-    <row r="11236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11236" s="1"/>
-    </row>
-    <row r="11237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11237" s="1"/>
-    </row>
-    <row r="11238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11238" s="1"/>
-    </row>
-    <row r="11239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11239" s="1"/>
-    </row>
-    <row r="11240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11240" s="1"/>
-    </row>
-    <row r="11241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11241" s="1"/>
-    </row>
-    <row r="11242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11242" s="1"/>
-    </row>
-    <row r="11243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11243" s="1"/>
-    </row>
-    <row r="11244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11244" s="1"/>
-    </row>
-    <row r="11245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11245" s="1"/>
-    </row>
-    <row r="11246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11246" s="1"/>
-    </row>
-    <row r="11247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11247" s="1"/>
-    </row>
-    <row r="11248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11248" s="1"/>
-    </row>
-    <row r="11249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11249" s="1"/>
-    </row>
-    <row r="11250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11250" s="1"/>
-    </row>
-    <row r="11251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11251" s="1"/>
-    </row>
-    <row r="11252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11252" s="1"/>
-    </row>
-    <row r="11253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11253" s="1"/>
-    </row>
-    <row r="11254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11254" s="1"/>
-    </row>
-    <row r="11255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11255" s="1"/>
-    </row>
-    <row r="11256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11256" s="1"/>
-    </row>
-    <row r="11257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11257" s="1"/>
-    </row>
-    <row r="11258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11258" s="1"/>
-    </row>
-    <row r="11259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11259" s="1"/>
-    </row>
-    <row r="11260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11260" s="1"/>
-    </row>
-    <row r="11261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11261" s="1"/>
-    </row>
-    <row r="11262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11262" s="1"/>
-    </row>
-    <row r="11263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11263" s="1"/>
-    </row>
-    <row r="11264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11264" s="1"/>
-    </row>
-    <row r="11265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11265" s="1"/>
-    </row>
-    <row r="11266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11266" s="1"/>
-    </row>
-    <row r="11267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11267" s="1"/>
-    </row>
-    <row r="11268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11268" s="1"/>
-    </row>
-    <row r="11269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11269" s="1"/>
-    </row>
-    <row r="11270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11270" s="1"/>
-    </row>
-    <row r="11271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11271" s="1"/>
-    </row>
-    <row r="11272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11272" s="1"/>
-    </row>
-    <row r="11273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11273" s="1"/>
-    </row>
-    <row r="11274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11274" s="1"/>
-    </row>
-    <row r="11275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11275" s="1"/>
-    </row>
-    <row r="11276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11276" s="1"/>
-    </row>
-    <row r="11277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11277" s="1"/>
-    </row>
-    <row r="11278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11278" s="1"/>
-    </row>
-    <row r="11279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11279" s="1"/>
-    </row>
-    <row r="11280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11280" s="1"/>
-    </row>
-    <row r="11281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11281" s="1"/>
-    </row>
-    <row r="11282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11282" s="1"/>
-    </row>
-    <row r="11283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11283" s="1"/>
-    </row>
-    <row r="11284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11284" s="1"/>
-    </row>
-    <row r="11285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11285" s="1"/>
-    </row>
-    <row r="11286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11286" s="1"/>
-    </row>
-    <row r="11287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11287" s="1"/>
-    </row>
-    <row r="11288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11288" s="1"/>
-    </row>
-    <row r="11289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11289" s="1"/>
-    </row>
-    <row r="11290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11290" s="1"/>
-    </row>
-    <row r="11291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11291" s="1"/>
-    </row>
-    <row r="11292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11292" s="1"/>
-    </row>
-    <row r="11293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11293" s="1"/>
-    </row>
-    <row r="11294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11294" s="1"/>
-    </row>
-    <row r="11295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11295" s="1"/>
-    </row>
-    <row r="11296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11296" s="1"/>
-    </row>
-    <row r="11297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11297" s="1"/>
-    </row>
-    <row r="11298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11298" s="1"/>
-    </row>
-    <row r="11299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11299" s="1"/>
-    </row>
-    <row r="11300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11300" s="1"/>
-    </row>
-    <row r="11301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11301" s="1"/>
-    </row>
-    <row r="11302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11302" s="1"/>
-    </row>
-    <row r="11303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11303" s="1"/>
-    </row>
-    <row r="11304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11304" s="1"/>
-    </row>
-    <row r="11305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11305" s="1"/>
-    </row>
-    <row r="11306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11306" s="1"/>
-    </row>
-    <row r="11307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11307" s="1"/>
-    </row>
-    <row r="11308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11308" s="1"/>
-    </row>
-    <row r="11309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11309" s="1"/>
-    </row>
-    <row r="11310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11310" s="1"/>
-    </row>
-    <row r="11311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11311" s="1"/>
-    </row>
-    <row r="11312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11312" s="1"/>
-    </row>
-    <row r="11313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11313" s="1"/>
-    </row>
-    <row r="11314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11314" s="1"/>
-    </row>
-    <row r="11315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11315" s="1"/>
-    </row>
-    <row r="11316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11316" s="1"/>
-    </row>
-    <row r="11317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11317" s="1"/>
-    </row>
-    <row r="11318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11318" s="1"/>
-    </row>
-    <row r="11319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11319" s="1"/>
-    </row>
-    <row r="11320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11320" s="1"/>
-    </row>
-    <row r="11321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11321" s="1"/>
-    </row>
-    <row r="11322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11322" s="1"/>
-    </row>
-    <row r="11323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11323" s="1"/>
-    </row>
-    <row r="11324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11324" s="1"/>
-    </row>
-    <row r="11325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11325" s="1"/>
-    </row>
-    <row r="11326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11326" s="1"/>
-    </row>
-    <row r="11327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11327" s="1"/>
-    </row>
-    <row r="11328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11328" s="1"/>
-    </row>
-    <row r="11329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11329" s="1"/>
-    </row>
-    <row r="11330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11330" s="1"/>
-    </row>
-    <row r="11331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11331" s="1"/>
-    </row>
-    <row r="11332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11332" s="1"/>
-    </row>
-    <row r="11333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11333" s="1"/>
-    </row>
-    <row r="11334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11334" s="1"/>
-    </row>
-    <row r="11335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11335" s="1"/>
-    </row>
-    <row r="11336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11336" s="1"/>
-    </row>
-    <row r="11337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11337" s="1"/>
-    </row>
-    <row r="11338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11338" s="1"/>
-    </row>
-    <row r="11339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11339" s="1"/>
-    </row>
-    <row r="11340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11340" s="1"/>
-    </row>
-    <row r="11341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11341" s="1"/>
-    </row>
-    <row r="11342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11342" s="1"/>
-    </row>
-    <row r="11343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11343" s="1"/>
-    </row>
-    <row r="11344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11344" s="1"/>
-    </row>
-    <row r="11345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11345" s="1"/>
-    </row>
-    <row r="11346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11346" s="1"/>
-    </row>
-    <row r="11347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11347" s="1"/>
-    </row>
-    <row r="11348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11348" s="1"/>
-    </row>
-    <row r="11349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11349" s="1"/>
-    </row>
-    <row r="11350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11350" s="1"/>
-    </row>
-    <row r="11351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11351" s="1"/>
-    </row>
-    <row r="11352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11352" s="1"/>
-    </row>
-    <row r="11353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11353" s="1"/>
-    </row>
-    <row r="11354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11354" s="1"/>
-    </row>
-    <row r="11355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11355" s="1"/>
-    </row>
-    <row r="11356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11356" s="1"/>
-    </row>
-    <row r="11357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11357" s="1"/>
-    </row>
-    <row r="11358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11358" s="1"/>
-    </row>
-    <row r="11359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11359" s="1"/>
-    </row>
-    <row r="11360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11360" s="1"/>
-    </row>
-    <row r="11361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11361" s="1"/>
-    </row>
-    <row r="11362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11362" s="1"/>
-    </row>
-    <row r="11363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11363" s="1"/>
-    </row>
-    <row r="11364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11364" s="1"/>
-    </row>
-    <row r="11365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11365" s="1"/>
-    </row>
-    <row r="11366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11366" s="1"/>
-    </row>
-    <row r="11367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11367" s="1"/>
-    </row>
-    <row r="11368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11368" s="1"/>
-    </row>
-    <row r="11369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11369" s="1"/>
-    </row>
-    <row r="11370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11370" s="1"/>
-    </row>
-    <row r="11371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11371" s="1"/>
-    </row>
-    <row r="11372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11372" s="1"/>
-    </row>
-    <row r="11373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11373" s="1"/>
-    </row>
-    <row r="11374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11374" s="1"/>
-    </row>
-    <row r="11375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11375" s="1"/>
-    </row>
-    <row r="11376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11376" s="1"/>
-    </row>
-    <row r="11377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11377" s="1"/>
-    </row>
-    <row r="11378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11378" s="1"/>
-    </row>
-    <row r="11379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11379" s="1"/>
-    </row>
-    <row r="11380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11380" s="1"/>
-    </row>
-    <row r="11381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11381" s="1"/>
-    </row>
-    <row r="11382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11382" s="1"/>
-    </row>
-    <row r="11383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11383" s="1"/>
-    </row>
-    <row r="11384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11384" s="1"/>
-    </row>
-    <row r="11385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11385" s="1"/>
-    </row>
-    <row r="11386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11386" s="1"/>
-    </row>
-    <row r="11387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11387" s="1"/>
-    </row>
-    <row r="11388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11388" s="1"/>
-    </row>
-    <row r="11389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11389" s="1"/>
-    </row>
-    <row r="11390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11390" s="1"/>
-    </row>
-    <row r="11391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11391" s="1"/>
-    </row>
-    <row r="11392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11392" s="1"/>
-    </row>
-    <row r="11393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11393" s="1"/>
-    </row>
-    <row r="11394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11394" s="1"/>
-    </row>
-    <row r="11395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11395" s="1"/>
-    </row>
-    <row r="11396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11396" s="1"/>
-    </row>
-    <row r="11397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11397" s="1"/>
-    </row>
-    <row r="11398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11398" s="1"/>
-    </row>
-    <row r="11399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11399" s="1"/>
-    </row>
-    <row r="11400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11400" s="1"/>
-    </row>
-    <row r="11401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11401" s="1"/>
-    </row>
-    <row r="11402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11402" s="1"/>
-    </row>
-    <row r="11403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11403" s="1"/>
-    </row>
-    <row r="11404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11404" s="1"/>
-    </row>
-    <row r="11405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11405" s="1"/>
-    </row>
-    <row r="11406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11406" s="1"/>
-    </row>
-    <row r="11407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11407" s="1"/>
-    </row>
-    <row r="11408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11408" s="1"/>
-    </row>
-    <row r="11409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11409" s="1"/>
-    </row>
-    <row r="11410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11410" s="1"/>
-    </row>
-    <row r="11411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11411" s="1"/>
-    </row>
-    <row r="11412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11412" s="1"/>
-    </row>
-    <row r="11413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11413" s="1"/>
-    </row>
-    <row r="11414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11414" s="1"/>
-    </row>
-    <row r="11415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11415" s="1"/>
-    </row>
-    <row r="11416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11416" s="1"/>
-    </row>
-    <row r="11417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11417" s="1"/>
-    </row>
-    <row r="11418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11418" s="1"/>
-    </row>
-    <row r="11419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11419" s="1"/>
-    </row>
-    <row r="11420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11420" s="1"/>
-    </row>
-    <row r="11421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11421" s="1"/>
-    </row>
-    <row r="11422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11422" s="1"/>
-    </row>
-    <row r="11423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11423" s="1"/>
-    </row>
-    <row r="11424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11424" s="1"/>
-    </row>
-    <row r="11425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11425" s="1"/>
-    </row>
-    <row r="11426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11426" s="1"/>
-    </row>
-    <row r="11427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11427" s="1"/>
-    </row>
-    <row r="11428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11428" s="1"/>
-    </row>
-    <row r="11429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11429" s="1"/>
-    </row>
-    <row r="11430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11430" s="1"/>
-    </row>
-    <row r="11431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11431" s="1"/>
-    </row>
-    <row r="11432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11432" s="1"/>
-    </row>
-    <row r="11433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11433" s="1"/>
-    </row>
-    <row r="11434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11434" s="1"/>
-    </row>
-    <row r="11435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11435" s="1"/>
-    </row>
-    <row r="11436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11436" s="1"/>
-    </row>
-    <row r="11437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11437" s="1"/>
-    </row>
-    <row r="11438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11438" s="1"/>
-    </row>
-    <row r="11439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11439" s="1"/>
-    </row>
-    <row r="11440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11440" s="1"/>
-    </row>
-    <row r="11441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11441" s="1"/>
-    </row>
-    <row r="11442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11442" s="1"/>
-    </row>
-    <row r="11443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11443" s="1"/>
-    </row>
-    <row r="11444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11444" s="1"/>
-    </row>
-    <row r="11445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11445" s="1"/>
-    </row>
-    <row r="11446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11446" s="1"/>
-    </row>
-    <row r="11447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11447" s="1"/>
-    </row>
-    <row r="11448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11448" s="1"/>
-    </row>
-    <row r="11449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11449" s="1"/>
-    </row>
-    <row r="11450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11450" s="1"/>
-    </row>
-    <row r="11451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11451" s="1"/>
-    </row>
-    <row r="11452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11452" s="1"/>
-    </row>
-    <row r="11453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11453" s="1"/>
-    </row>
-    <row r="11454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11454" s="1"/>
-    </row>
-    <row r="11455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11455" s="1"/>
-    </row>
-    <row r="11456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11456" s="1"/>
-    </row>
-    <row r="11457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11457" s="1"/>
-    </row>
-    <row r="11458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11458" s="1"/>
-    </row>
-    <row r="11459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11459" s="1"/>
-    </row>
-    <row r="11460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11460" s="1"/>
-    </row>
-    <row r="11461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11461" s="1"/>
-    </row>
-    <row r="11462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11462" s="1"/>
-    </row>
-    <row r="11463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11463" s="1"/>
-    </row>
-    <row r="11464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11464" s="1"/>
-    </row>
-    <row r="11465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11465" s="1"/>
-    </row>
-    <row r="11466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11466" s="1"/>
-    </row>
-    <row r="11467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11467" s="1"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>